--- a/doc/Master_Gantt.xlsx
+++ b/doc/Master_Gantt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\travi\Documents\CollegeFiles\CS 383\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\travi\Desktop\Team-Faucet\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B770E71F-8E24-41A2-84C6-C139B1D34EDA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53737DA-002A-4902-B81A-67BAA6820999}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1" xr2:uid="{24327E33-5E17-41B8-A917-F1E518100254}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{24327E33-5E17-41B8-A917-F1E518100254}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="136">
   <si>
     <t>Persons</t>
   </si>
@@ -410,6 +410,33 @@
   </si>
   <si>
     <t>Estimated Hours</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Devin</t>
+  </si>
+  <si>
+    <t>Drew</t>
+  </si>
+  <si>
+    <t>Garrett</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t>Miranda</t>
+  </si>
+  <si>
+    <t>Travis</t>
+  </si>
+  <si>
+    <t>Zach</t>
+  </si>
+  <si>
+    <t>Zane</t>
   </si>
 </sst>
 </file>
@@ -417,8 +444,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -444,7 +471,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,8 +501,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -654,12 +687,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -673,7 +719,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -701,7 +747,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -715,6 +761,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1275,7 +1334,1731 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Merged Gantt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gantt!$D$48:$D$123</c:f>
+              <c:strCache>
+                <c:ptCount val="76"/>
+                <c:pt idx="0">
+                  <c:v>Documentation/SA demo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Specify data structure for rooms and doors</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>setup room generation algorithms</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>get initial main path of rooms generating (from start to middle to end)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>get branching rooms to generate</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>generate visuals for rooms</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Create physics colliders around rooms</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Populate rooms with enemies &amp; items</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Spawn player object in start room, and exit object in end room.</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Documentation/SA demo</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Write Public functions, basic structure</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Program core features</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Program optional features</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Debug main features</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Debug optional features</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Documentation</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Release Build</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Documentation/SA demo</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Write Public functions, basic structure</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Program core features</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Program optional features</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Debug main features</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Debug optional features</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Documentation</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Release Build</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Documentation/SA demo</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Learning C#/Unity</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Parsing the data from others</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Encoding it in some standard</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Reading/Writing to disk</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Parsing data from disk</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Passing data in a useful way to the others</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Documentation/SA demo</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Write Skeleton Code/Public Headers</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Write Acceptance Test plan</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Write classes that will be inheritated by enemy class</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Write remaining core features</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Update Gantt Chart</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Finish coding any missing features</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Test Release Candidate Make last-minute changes</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Documentation/SA demo</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Learn Unity</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Code feature</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Test Code</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Join code with rest of teams</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Debugging</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Rejoining code with teams</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Playing game to ensure works</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Documentation/SA demo</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Create Inventory</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Create test Items</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Create giveitemtoplayer()</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Create enemydropitem()</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Create chestdropitem()</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Create all necessary items</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Documentation/SA demo</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Overall Design Idea</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Program Working Sample</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Implement w/ Team’s Code</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>All Menus Functioning</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Allow for Settings Changes</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Implement Final Aesthetic Designs</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Documentation/SA demo</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Outline Manager and Functions</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Build Sound Library</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Working Functions for all possible audio requests</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Testing/Debugging</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Algorithm for dynamic pitch of sounds</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Modify sounds/music for optimal load times</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Testing/Debugging</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Presentation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gantt!$C$48:$C$123</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="76"/>
+                <c:pt idx="0">
+                  <c:v>43115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43143</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43164</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43185</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43206</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43213</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43115</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43143</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43171</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43206</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43213</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43115</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43143</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43157</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43171</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43185</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43199</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43213</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43223</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43115</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43143</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43150</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43157</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43171</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43185</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43199</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43213</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43115</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43143</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43150</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43157</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43164</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43192</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43199</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43213</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43115</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43143</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43150</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43164</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43178</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43192</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43206</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43115</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43143</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43157</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43164</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43178</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43192</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43206</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43213</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43115</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43143</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43150</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43164</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43178</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43185</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43192</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43206</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43115</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43143</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43150</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43171</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43185</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43192</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43206</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43223</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-B8AA-4D28-B8D6-EF0880E70ADF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>completed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gantt!$D$48:$D$123</c:f>
+              <c:strCache>
+                <c:ptCount val="76"/>
+                <c:pt idx="0">
+                  <c:v>Documentation/SA demo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Specify data structure for rooms and doors</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>setup room generation algorithms</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>get initial main path of rooms generating (from start to middle to end)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>get branching rooms to generate</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>generate visuals for rooms</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Create physics colliders around rooms</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Populate rooms with enemies &amp; items</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Spawn player object in start room, and exit object in end room.</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Documentation/SA demo</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Write Public functions, basic structure</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Program core features</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Program optional features</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Debug main features</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Debug optional features</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Documentation</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Release Build</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Documentation/SA demo</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Write Public functions, basic structure</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Program core features</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Program optional features</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Debug main features</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Debug optional features</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Documentation</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Release Build</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Documentation/SA demo</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Learning C#/Unity</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Parsing the data from others</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Encoding it in some standard</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Reading/Writing to disk</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Parsing data from disk</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Passing data in a useful way to the others</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Documentation/SA demo</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Write Skeleton Code/Public Headers</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Write Acceptance Test plan</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Write classes that will be inheritated by enemy class</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Write remaining core features</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Update Gantt Chart</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Finish coding any missing features</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Test Release Candidate Make last-minute changes</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Documentation/SA demo</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Learn Unity</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Code feature</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Test Code</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Join code with rest of teams</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Debugging</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Rejoining code with teams</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Playing game to ensure works</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Documentation/SA demo</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Create Inventory</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Create test Items</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Create giveitemtoplayer()</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Create enemydropitem()</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Create chestdropitem()</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Create all necessary items</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Documentation/SA demo</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Overall Design Idea</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Program Working Sample</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Implement w/ Team’s Code</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>All Menus Functioning</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Allow for Settings Changes</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Implement Final Aesthetic Designs</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Documentation/SA demo</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Outline Manager and Functions</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Build Sound Library</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Working Functions for all possible audio requests</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Testing/Debugging</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Algorithm for dynamic pitch of sounds</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Modify sounds/music for optimal load times</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Testing/Debugging</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Presentation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gantt!$E$48:$E$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="76"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-B8AA-4D28-B8D6-EF0880E70ADF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>incompleted</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gantt!$D$48:$D$123</c:f>
+              <c:strCache>
+                <c:ptCount val="76"/>
+                <c:pt idx="0">
+                  <c:v>Documentation/SA demo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Specify data structure for rooms and doors</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>setup room generation algorithms</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>get initial main path of rooms generating (from start to middle to end)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>get branching rooms to generate</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>generate visuals for rooms</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Create physics colliders around rooms</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Populate rooms with enemies &amp; items</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Spawn player object in start room, and exit object in end room.</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Documentation/SA demo</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Write Public functions, basic structure</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Program core features</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Program optional features</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Debug main features</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Debug optional features</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Documentation</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Release Build</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Documentation/SA demo</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Write Public functions, basic structure</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Program core features</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Program optional features</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Debug main features</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Debug optional features</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Documentation</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Release Build</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Documentation/SA demo</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Learning C#/Unity</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Parsing the data from others</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Encoding it in some standard</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Reading/Writing to disk</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Parsing data from disk</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Passing data in a useful way to the others</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Documentation/SA demo</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Write Skeleton Code/Public Headers</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Write Acceptance Test plan</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Write classes that will be inheritated by enemy class</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Write remaining core features</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Update Gantt Chart</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Finish coding any missing features</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Test Release Candidate Make last-minute changes</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Documentation/SA demo</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Learn Unity</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Code feature</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Test Code</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Join code with rest of teams</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Debugging</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Rejoining code with teams</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Playing game to ensure works</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Documentation/SA demo</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Create Inventory</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Create test Items</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Create giveitemtoplayer()</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Create enemydropitem()</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Create chestdropitem()</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Create all necessary items</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Documentation/SA demo</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Overall Design Idea</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Program Working Sample</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Implement w/ Team’s Code</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>All Menus Functioning</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Allow for Settings Changes</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Implement Final Aesthetic Designs</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Documentation/SA demo</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Outline Manager and Functions</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Build Sound Library</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Working Functions for all possible audio requests</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Testing/Debugging</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Algorithm for dynamic pitch of sounds</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Modify sounds/music for optimal load times</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Testing/Debugging</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Presentation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gantt!$F$48:$F$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="76"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-B8AA-4D28-B8D6-EF0880E70ADF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="642435768"/>
+        <c:axId val="642437688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="642435768"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="642437688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="642437688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="43227"/>
+          <c:min val="43115"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="642435768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="7"/>
+        <c:minorUnit val="4"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1820,6 +3603,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1853,6 +4141,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB6E55A4-AD91-4226-BDEC-C7E2EC15826A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2158,10 +4482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33873E7D-5C5F-4C76-AC1C-D81FEE5D415F}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2803,7 +5127,7 @@
         <v>43192</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2842,7 +5166,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -2881,7 +5205,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2920,7 +5244,7 @@
         <v>43223</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -2959,7 +5283,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -2998,7 +5322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -3037,7 +5361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -3071,12 +5395,15 @@
       <c r="K23" s="1">
         <v>23</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="56">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -3110,12 +5437,13 @@
       <c r="K24" s="1">
         <v>24</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="56">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="58"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -3149,12 +5477,13 @@
       <c r="K25" s="1">
         <v>25</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="56">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="59"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -3188,12 +5517,13 @@
       <c r="K26" s="1">
         <v>26</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L26" s="56">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="59"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -3227,12 +5557,13 @@
       <c r="K27" s="1">
         <v>27</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="56">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="59"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -3266,12 +5597,13 @@
       <c r="K28" s="1">
         <v>28</v>
       </c>
-      <c r="L28" s="12">
+      <c r="L28" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="59"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3305,12 +5637,13 @@
       <c r="K29" s="1">
         <v>29</v>
       </c>
-      <c r="L29" s="12">
+      <c r="L29" s="56">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="59"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3344,12 +5677,13 @@
       <c r="K30" s="1">
         <v>30</v>
       </c>
-      <c r="L30" s="12">
+      <c r="L30" s="56">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="59"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -3383,12 +5717,15 @@
       <c r="K31" s="1">
         <v>31</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L31" s="56">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="57" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -3422,12 +5759,13 @@
       <c r="K32" s="1">
         <v>32</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32" s="56">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="59"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -3461,12 +5799,13 @@
       <c r="K33" s="1">
         <v>33</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L33" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="59"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -3500,12 +5839,13 @@
       <c r="K34" s="1">
         <v>34</v>
       </c>
-      <c r="L34" s="12">
+      <c r="L34" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" s="59"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -3539,12 +5879,13 @@
       <c r="K35" s="1">
         <v>35</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" s="59"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -3578,12 +5919,13 @@
       <c r="K36" s="1">
         <v>36</v>
       </c>
-      <c r="L36" s="12">
+      <c r="L36" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" s="59"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -3617,12 +5959,13 @@
       <c r="K37" s="1">
         <v>37</v>
       </c>
-      <c r="L37" s="12">
+      <c r="L37" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" s="59"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -3631,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" ref="B38:J38" si="1">C20-C29</f>
+        <f t="shared" ref="C38:J38" si="1">C20-C29</f>
         <v>0</v>
       </c>
       <c r="D38" s="24">
@@ -3665,12 +6008,15 @@
       <c r="K38" s="1">
         <v>38</v>
       </c>
-      <c r="L38" s="12">
+      <c r="L38" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" s="57" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -3713,12 +6059,13 @@
       <c r="K39" s="1">
         <v>39</v>
       </c>
-      <c r="L39" s="12">
+      <c r="L39" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" s="59"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -3761,12 +6108,13 @@
       <c r="K40" s="1">
         <v>40</v>
       </c>
-      <c r="L40" s="12">
+      <c r="L40" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" s="59"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -3809,12 +6157,13 @@
       <c r="K41" s="1">
         <v>41</v>
       </c>
-      <c r="L41" s="12">
+      <c r="L41" s="56">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" s="59"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -3857,12 +6206,13 @@
       <c r="K42" s="1">
         <v>42</v>
       </c>
-      <c r="L42" s="12">
+      <c r="L42" s="56">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" s="59"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -3905,12 +6255,13 @@
       <c r="K43" s="1">
         <v>43</v>
       </c>
-      <c r="L43" s="12">
+      <c r="L43" s="56">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" s="59"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -3953,12 +6304,13 @@
       <c r="K44" s="1">
         <v>44</v>
       </c>
-      <c r="L44" s="12">
+      <c r="L44" s="56">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" s="59"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -4001,12 +6353,13 @@
       <c r="K45" s="1">
         <v>45</v>
       </c>
-      <c r="L45" s="12">
+      <c r="L45" s="56">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" s="60"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -4049,8 +6402,1457 @@
       <c r="K46" s="1">
         <v>46</v>
       </c>
-      <c r="L46" s="12">
+      <c r="L46" s="56">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="59" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C47" s="52"/>
+      <c r="M47" s="59"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="61">
+        <f>B11</f>
+        <v>43115</v>
+      </c>
+      <c r="D48" s="14" t="str">
+        <f>B2</f>
+        <v>Documentation/SA demo</v>
+      </c>
+      <c r="E48">
+        <f>B29</f>
+        <v>28</v>
+      </c>
+      <c r="F48" s="14">
+        <f>B38</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="59"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C49" s="61">
+        <f t="shared" ref="C49:C56" si="3">B12</f>
+        <v>43143</v>
+      </c>
+      <c r="D49" s="14" t="str">
+        <f t="shared" ref="D49:D56" si="4">B3</f>
+        <v>Specify data structure for rooms and doors</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49:E56" si="5">B30</f>
+        <v>7</v>
+      </c>
+      <c r="F49" s="14">
+        <f t="shared" ref="F49:F56" si="6">B39</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="59"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C50" s="61">
+        <f t="shared" si="3"/>
+        <v>43150</v>
+      </c>
+      <c r="D50" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>setup room generation algorithms</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="F50" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="59"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C51" s="61">
+        <f t="shared" si="3"/>
+        <v>43164</v>
+      </c>
+      <c r="D51" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>get initial main path of rooms generating (from start to middle to end)</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="F51" s="14">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="M51" s="60"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C52" s="61">
+        <f t="shared" si="3"/>
+        <v>43185</v>
+      </c>
+      <c r="D52" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>get branching rooms to generate</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="14">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="M52" s="59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C53" s="61">
+        <f t="shared" si="3"/>
+        <v>43199</v>
+      </c>
+      <c r="D53" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>generate visuals for rooms</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="14">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="M53" s="59"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C54" s="61">
+        <f t="shared" si="3"/>
+        <v>43206</v>
+      </c>
+      <c r="D54" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>Create physics colliders around rooms</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="14">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="M54" s="59"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C55" s="61">
+        <f t="shared" si="3"/>
+        <v>43213</v>
+      </c>
+      <c r="D55" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>Populate rooms with enemies &amp; items</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="14">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="M55" s="59"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C56" s="61">
+        <f t="shared" si="3"/>
+        <v>43220</v>
+      </c>
+      <c r="D56" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>Spawn player object in start room, and exit object in end room.</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="14">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M56" s="59"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="6">
+        <f>C11</f>
+        <v>43115</v>
+      </c>
+      <c r="D57" s="14" t="str">
+        <f>C2</f>
+        <v>Documentation/SA demo</v>
+      </c>
+      <c r="E57">
+        <f>C29</f>
+        <v>28</v>
+      </c>
+      <c r="F57" s="14">
+        <f>C38</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="60"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C58" s="7">
+        <f t="shared" ref="C58:C65" si="7">C12</f>
+        <v>43143</v>
+      </c>
+      <c r="D58" s="14" t="str">
+        <f t="shared" ref="D58:D65" si="8">C3</f>
+        <v>Write Public functions, basic structure</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ref="E58:E65" si="9">C30</f>
+        <v>7</v>
+      </c>
+      <c r="F58" s="14">
+        <f t="shared" ref="F58:F65" si="10">C39</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="59" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C59" s="7">
+        <f t="shared" si="7"/>
+        <v>43150</v>
+      </c>
+      <c r="D59" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>Program core features</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="F59" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="59"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C60" s="7">
+        <f t="shared" si="7"/>
+        <v>43171</v>
+      </c>
+      <c r="D60" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>Program optional features</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="F60" s="14">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="M60" s="59"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C61" s="7">
+        <f t="shared" si="7"/>
+        <v>43192</v>
+      </c>
+      <c r="D61" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>Debug main features</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="14">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="M61" s="59"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C62" s="7">
+        <f t="shared" si="7"/>
+        <v>43199</v>
+      </c>
+      <c r="D62" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>Debug optional features</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="14">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="M62" s="59"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C63" s="7">
+        <f t="shared" si="7"/>
+        <v>43206</v>
+      </c>
+      <c r="D63" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>Documentation</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="14">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="M63" s="59"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C64" s="7">
+        <f t="shared" si="7"/>
+        <v>43213</v>
+      </c>
+      <c r="D64" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>Testing</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="14">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="M64" s="60"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C65" s="7">
+        <f t="shared" si="7"/>
+        <v>43220</v>
+      </c>
+      <c r="D65" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>Release Build</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="14">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="M65" s="59" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="7">
+        <f>D11</f>
+        <v>43115</v>
+      </c>
+      <c r="D66" s="14" t="str">
+        <f>C2</f>
+        <v>Documentation/SA demo</v>
+      </c>
+      <c r="E66">
+        <f>D29</f>
+        <v>28</v>
+      </c>
+      <c r="F66" s="14">
+        <f>D38</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="59"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C67" s="7">
+        <f t="shared" ref="C67:C74" si="11">D12</f>
+        <v>43143</v>
+      </c>
+      <c r="D67" s="14" t="str">
+        <f t="shared" ref="D67:D74" si="12">C3</f>
+        <v>Write Public functions, basic structure</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E74" si="13">D30</f>
+        <v>14</v>
+      </c>
+      <c r="F67" s="14">
+        <f t="shared" ref="F67:F74" si="14">D39</f>
+        <v>0</v>
+      </c>
+      <c r="M67" s="59"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C68" s="7">
+        <f t="shared" si="11"/>
+        <v>43157</v>
+      </c>
+      <c r="D68" s="14" t="str">
+        <f t="shared" si="12"/>
+        <v>Program core features</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="F68" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="59"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C69" s="7">
+        <f t="shared" si="11"/>
+        <v>43171</v>
+      </c>
+      <c r="D69" s="14" t="str">
+        <f t="shared" si="12"/>
+        <v>Program optional features</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="F69" s="14">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="M69" s="59"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C70" s="7">
+        <f t="shared" si="11"/>
+        <v>43185</v>
+      </c>
+      <c r="D70" s="14" t="str">
+        <f t="shared" si="12"/>
+        <v>Debug main features</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="14">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="M70" s="60"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C71" s="7">
+        <f t="shared" si="11"/>
+        <v>43199</v>
+      </c>
+      <c r="D71" s="14" t="str">
+        <f t="shared" si="12"/>
+        <v>Debug optional features</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="14">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="M71" s="59" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C72" s="7">
+        <f t="shared" si="11"/>
+        <v>43213</v>
+      </c>
+      <c r="D72" s="14" t="str">
+        <f t="shared" si="12"/>
+        <v>Documentation</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="14">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="M72" s="59"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C73" s="7">
+        <f t="shared" si="11"/>
+        <v>43220</v>
+      </c>
+      <c r="D73" s="14" t="str">
+        <f t="shared" si="12"/>
+        <v>Testing</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F73" s="14">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="M73" s="59"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C74" s="7">
+        <f t="shared" si="11"/>
+        <v>43223</v>
+      </c>
+      <c r="D74" s="14" t="str">
+        <f t="shared" si="12"/>
+        <v>Release Build</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F74" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="59"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="7">
+        <f>E11</f>
+        <v>43115</v>
+      </c>
+      <c r="D75" s="14" t="str">
+        <f>D2</f>
+        <v>Documentation/SA demo</v>
+      </c>
+      <c r="E75">
+        <f>E29</f>
+        <v>28</v>
+      </c>
+      <c r="F75" s="14">
+        <f>E38</f>
+        <v>0</v>
+      </c>
+      <c r="M75" s="59"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C76" s="7">
+        <f t="shared" ref="C76:C82" si="15">E12</f>
+        <v>43143</v>
+      </c>
+      <c r="D76" s="14" t="str">
+        <f t="shared" ref="D76:D82" si="16">D3</f>
+        <v>Learning C#/Unity</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ref="E76:E82" si="17">E30</f>
+        <v>7</v>
+      </c>
+      <c r="F76" s="14">
+        <f t="shared" ref="F76:F82" si="18">E39</f>
+        <v>0</v>
+      </c>
+      <c r="M76" s="60"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C77" s="7">
+        <f t="shared" si="15"/>
+        <v>43150</v>
+      </c>
+      <c r="D77" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>Parsing the data from others</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="F77" s="14">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="59" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C78" s="7">
+        <f t="shared" si="15"/>
+        <v>43157</v>
+      </c>
+      <c r="D78" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>Encoding it in some standard</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="F78" s="14">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M78" s="59"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C79" s="7">
+        <f t="shared" si="15"/>
+        <v>43171</v>
+      </c>
+      <c r="D79" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>Reading/Writing to disk</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F79" s="14">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="M79" s="59"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C80" s="7">
+        <f t="shared" si="15"/>
+        <v>43185</v>
+      </c>
+      <c r="D80" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>Parsing data from disk</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F80" s="14">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="M80" s="59"/>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C81" s="7">
+        <f t="shared" si="15"/>
+        <v>43199</v>
+      </c>
+      <c r="D81" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>Passing data in a useful way to the others</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F81" s="14">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="M81" s="59"/>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C82" s="7">
+        <f t="shared" si="15"/>
+        <v>43213</v>
+      </c>
+      <c r="D82" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>Testing</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F82" s="14">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="M82" s="59"/>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B83" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" s="7">
+        <f>F11</f>
+        <v>43115</v>
+      </c>
+      <c r="D83" s="14" t="str">
+        <f>F2</f>
+        <v>Documentation/SA demo</v>
+      </c>
+      <c r="E83">
+        <f>F29</f>
+        <v>28</v>
+      </c>
+      <c r="F83" s="14">
+        <f>F38</f>
+        <v>0</v>
+      </c>
+      <c r="M83" s="59"/>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C84" s="7">
+        <f t="shared" ref="C84:C90" si="19">F12</f>
+        <v>43143</v>
+      </c>
+      <c r="D84" s="14" t="str">
+        <f t="shared" ref="D84:D90" si="20">F3</f>
+        <v>Write Skeleton Code/Public Headers</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ref="E84:E90" si="21">F30</f>
+        <v>7</v>
+      </c>
+      <c r="F84" s="14">
+        <f t="shared" ref="F84:F90" si="22">F39</f>
+        <v>0</v>
+      </c>
+      <c r="M84" s="60"/>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C85" s="7">
+        <f t="shared" si="19"/>
+        <v>43150</v>
+      </c>
+      <c r="D85" s="14" t="str">
+        <f t="shared" si="20"/>
+        <v>Write Acceptance Test plan</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="F85" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C86" s="7">
+        <f t="shared" si="19"/>
+        <v>43157</v>
+      </c>
+      <c r="D86" s="14" t="str">
+        <f t="shared" si="20"/>
+        <v>Write classes that will be inheritated by enemy class</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="F86" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C87" s="7">
+        <f t="shared" si="19"/>
+        <v>43164</v>
+      </c>
+      <c r="D87" s="14" t="str">
+        <f t="shared" si="20"/>
+        <v>Write remaining core features</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="F87" s="14">
+        <f t="shared" si="22"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C88" s="7">
+        <f t="shared" si="19"/>
+        <v>43192</v>
+      </c>
+      <c r="D88" s="14" t="str">
+        <f t="shared" si="20"/>
+        <v>Update Gantt Chart</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F88" s="14">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C89" s="7">
+        <f t="shared" si="19"/>
+        <v>43199</v>
+      </c>
+      <c r="D89" s="14" t="str">
+        <f t="shared" si="20"/>
+        <v>Finish coding any missing features</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F89" s="14">
+        <f t="shared" si="22"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C90" s="7">
+        <f t="shared" si="19"/>
+        <v>43213</v>
+      </c>
+      <c r="D90" s="14" t="str">
+        <f t="shared" si="20"/>
+        <v>Test Release Candidate Make last-minute changes</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="14">
+        <f t="shared" si="22"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B91" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" s="7">
+        <f>G11</f>
+        <v>43115</v>
+      </c>
+      <c r="D91" s="14" t="str">
+        <f>G2</f>
+        <v>Documentation/SA demo</v>
+      </c>
+      <c r="E91">
+        <f>G29</f>
+        <v>28</v>
+      </c>
+      <c r="F91" s="14">
+        <f>G38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C92" s="7">
+        <f t="shared" ref="C92:C98" si="23">G12</f>
+        <v>43143</v>
+      </c>
+      <c r="D92" s="14" t="str">
+        <f t="shared" ref="D92:D98" si="24">G3</f>
+        <v>Learn Unity</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ref="E92:E98" si="25">G30</f>
+        <v>7</v>
+      </c>
+      <c r="F92" s="14">
+        <f t="shared" ref="F92:F98" si="26">G39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C93" s="7">
+        <f t="shared" si="23"/>
+        <v>43150</v>
+      </c>
+      <c r="D93" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v>Code feature</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="25"/>
+        <v>14</v>
+      </c>
+      <c r="F93" s="14">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C94" s="7">
+        <f t="shared" si="23"/>
+        <v>43164</v>
+      </c>
+      <c r="D94" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v>Test Code</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="25"/>
+        <v>14</v>
+      </c>
+      <c r="F94" s="14">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C95" s="7">
+        <f t="shared" si="23"/>
+        <v>43178</v>
+      </c>
+      <c r="D95" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v>Join code with rest of teams</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F95" s="14">
+        <f t="shared" si="26"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C96" s="7">
+        <f t="shared" si="23"/>
+        <v>43192</v>
+      </c>
+      <c r="D96" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v>Debugging</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F96" s="14">
+        <f t="shared" si="26"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C97" s="7">
+        <f t="shared" si="23"/>
+        <v>43206</v>
+      </c>
+      <c r="D97" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v>Rejoining code with teams</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F97" s="14">
+        <f t="shared" si="26"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C98" s="7">
+        <f t="shared" si="23"/>
+        <v>43220</v>
+      </c>
+      <c r="D98" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v>Playing game to ensure works</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F98" s="14">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C99" s="7">
+        <f>H11</f>
+        <v>43115</v>
+      </c>
+      <c r="D99" s="14" t="str">
+        <f>H2</f>
+        <v>Documentation/SA demo</v>
+      </c>
+      <c r="E99">
+        <f>H29</f>
+        <v>28</v>
+      </c>
+      <c r="F99" s="14">
+        <f>H38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C100" s="7">
+        <f t="shared" ref="C100:C106" si="27">H12</f>
+        <v>43143</v>
+      </c>
+      <c r="D100" s="14" t="str">
+        <f t="shared" ref="D100:D106" si="28">H3</f>
+        <v>Create Inventory</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ref="E100:E106" si="29">H30</f>
+        <v>14</v>
+      </c>
+      <c r="F100" s="14">
+        <f t="shared" ref="F100:F106" si="30">H39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C101" s="7">
+        <f t="shared" si="27"/>
+        <v>43157</v>
+      </c>
+      <c r="D101" s="14" t="str">
+        <f t="shared" si="28"/>
+        <v>Create test Items</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="29"/>
+        <v>7</v>
+      </c>
+      <c r="F101" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C102" s="7">
+        <f t="shared" si="27"/>
+        <v>43164</v>
+      </c>
+      <c r="D102" s="14" t="str">
+        <f t="shared" si="28"/>
+        <v>Create giveitemtoplayer()</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="29"/>
+        <v>7</v>
+      </c>
+      <c r="F102" s="14">
+        <f t="shared" si="30"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C103" s="7">
+        <f t="shared" si="27"/>
+        <v>43178</v>
+      </c>
+      <c r="D103" s="14" t="str">
+        <f t="shared" si="28"/>
+        <v>Create enemydropitem()</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="F103" s="14">
+        <f t="shared" si="30"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C104" s="7">
+        <f t="shared" si="27"/>
+        <v>43192</v>
+      </c>
+      <c r="D104" s="14" t="str">
+        <f t="shared" si="28"/>
+        <v>Create chestdropitem()</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="F104" s="14">
+        <f t="shared" si="30"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C105" s="7">
+        <f t="shared" si="27"/>
+        <v>43206</v>
+      </c>
+      <c r="D105" s="14" t="str">
+        <f t="shared" si="28"/>
+        <v>Testing</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="F105" s="14">
+        <f t="shared" si="30"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C106" s="7">
+        <f t="shared" si="27"/>
+        <v>43213</v>
+      </c>
+      <c r="D106" s="14" t="str">
+        <f t="shared" si="28"/>
+        <v>Create all necessary items</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="F106" s="14">
+        <f t="shared" si="30"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C107" s="7">
+        <f>I11</f>
+        <v>43115</v>
+      </c>
+      <c r="D107" s="14" t="str">
+        <f>I2</f>
+        <v>Documentation/SA demo</v>
+      </c>
+      <c r="E107">
+        <f>I29</f>
+        <v>28</v>
+      </c>
+      <c r="F107" s="14">
+        <f>I38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C108" s="7">
+        <f t="shared" ref="C108:C114" si="31">I12</f>
+        <v>43143</v>
+      </c>
+      <c r="D108" s="14" t="str">
+        <f t="shared" ref="D108:D114" si="32">I3</f>
+        <v>Overall Design Idea</v>
+      </c>
+      <c r="E108">
+        <f t="shared" ref="E108:E114" si="33">I30</f>
+        <v>7</v>
+      </c>
+      <c r="F108" s="14">
+        <f t="shared" ref="F108:F114" si="34">I39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C109" s="7">
+        <f t="shared" si="31"/>
+        <v>43150</v>
+      </c>
+      <c r="D109" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v>Program Working Sample</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="33"/>
+        <v>14</v>
+      </c>
+      <c r="F109" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C110" s="7">
+        <f t="shared" si="31"/>
+        <v>43164</v>
+      </c>
+      <c r="D110" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v>Implement w/ Team’s Code</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="33"/>
+        <v>14</v>
+      </c>
+      <c r="F110" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C111" s="7">
+        <f t="shared" si="31"/>
+        <v>43178</v>
+      </c>
+      <c r="D111" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v>All Menus Functioning</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="F111" s="14">
+        <f t="shared" si="34"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C112" s="7">
+        <f t="shared" si="31"/>
+        <v>43185</v>
+      </c>
+      <c r="D112" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v>Allow for Settings Changes</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="F112" s="14">
+        <f t="shared" si="34"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C113" s="7">
+        <f t="shared" si="31"/>
+        <v>43192</v>
+      </c>
+      <c r="D113" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v>Implement Final Aesthetic Designs</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="F113" s="14">
+        <f t="shared" si="34"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C114" s="7">
+        <f t="shared" si="31"/>
+        <v>43206</v>
+      </c>
+      <c r="D114" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v>Testing</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="F114" s="14">
+        <f t="shared" si="34"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C115" s="7">
+        <f>J11</f>
+        <v>43115</v>
+      </c>
+      <c r="D115" s="14" t="str">
+        <f>J2</f>
+        <v>Documentation/SA demo</v>
+      </c>
+      <c r="E115">
+        <f>J29</f>
+        <v>28</v>
+      </c>
+      <c r="F115" s="14">
+        <f>J38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C116" s="7">
+        <f t="shared" ref="C116:C123" si="35">J12</f>
+        <v>43143</v>
+      </c>
+      <c r="D116" s="14" t="str">
+        <f t="shared" ref="D116:D123" si="36">J3</f>
+        <v>Outline Manager and Functions</v>
+      </c>
+      <c r="E116">
+        <f t="shared" ref="E116:E123" si="37">J30</f>
+        <v>7</v>
+      </c>
+      <c r="F116" s="14">
+        <f t="shared" ref="F116:F123" si="38">J39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C117" s="7">
+        <f t="shared" si="35"/>
+        <v>43150</v>
+      </c>
+      <c r="D117" s="14" t="str">
+        <f t="shared" si="36"/>
+        <v>Build Sound Library</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="37"/>
+        <v>21</v>
+      </c>
+      <c r="F117" s="14">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C118" s="7">
+        <f t="shared" si="35"/>
+        <v>43171</v>
+      </c>
+      <c r="D118" s="14" t="str">
+        <f t="shared" si="36"/>
+        <v>Working Functions for all possible audio requests</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="F118" s="14">
+        <f t="shared" si="38"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C119" s="7">
+        <f t="shared" si="35"/>
+        <v>43185</v>
+      </c>
+      <c r="D119" s="14" t="str">
+        <f t="shared" si="36"/>
+        <v>Testing/Debugging</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="F119" s="14">
+        <f t="shared" si="38"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C120" s="7">
+        <f t="shared" si="35"/>
+        <v>43192</v>
+      </c>
+      <c r="D120" s="14" t="str">
+        <f t="shared" si="36"/>
+        <v>Algorithm for dynamic pitch of sounds</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="F120" s="14">
+        <f t="shared" si="38"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C121" s="7">
+        <f t="shared" si="35"/>
+        <v>43206</v>
+      </c>
+      <c r="D121" s="14" t="str">
+        <f t="shared" si="36"/>
+        <v>Modify sounds/music for optimal load times</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="F121" s="14">
+        <f t="shared" si="38"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C122" s="7">
+        <f t="shared" si="35"/>
+        <v>43220</v>
+      </c>
+      <c r="D122" s="14" t="str">
+        <f t="shared" si="36"/>
+        <v>Testing/Debugging</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="F122" s="14">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C123" s="7">
+        <f t="shared" si="35"/>
+        <v>43223</v>
+      </c>
+      <c r="D123" s="14" t="str">
+        <f t="shared" si="36"/>
+        <v>Presentation</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="F123" s="14">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -4070,8 +7872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E405C95B-F562-491A-BE4E-D61A355ABBB1}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4414,8 +8216,11 @@
       <c r="A42" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B42">
-        <v>5</v>
+      <c r="B42" s="55">
+        <v>13.5</v>
+      </c>
+      <c r="C42">
+        <v>16.25</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -4423,7 +8228,7 @@
         <v>114</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -4431,7 +8236,7 @@
         <v>115</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -4439,7 +8244,7 @@
         <v>116</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -4447,7 +8252,7 @@
         <v>117</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -4463,7 +8268,7 @@
         <v>119</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -4576,7 +8381,7 @@
         <v>5</v>
       </c>
       <c r="C62">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -4842,19 +8647,19 @@
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92">
         <f>SUM(B2:B90)</f>
-        <v>415</v>
+        <v>435.5</v>
       </c>
       <c r="C92">
         <f>SUM(C2:C90)</f>
-        <v>31.25</v>
+        <v>49.5</v>
       </c>
       <c r="D92" s="41">
         <f>B92*100</f>
-        <v>41500</v>
+        <v>43550</v>
       </c>
       <c r="E92" s="41">
         <f>C92*100</f>
-        <v>3125</v>
+        <v>4950</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Master_Gantt.xlsx
+++ b/doc/Master_Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\travi\Desktop\Team-Faucet\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53737DA-002A-4902-B81A-67BAA6820999}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD89C239-E868-4CF6-B624-AB3940CBB3E5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{24327E33-5E17-41B8-A917-F1E518100254}"/>
   </bookViews>
@@ -28,6 +28,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Travis Rousey</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{C385386C-B8E9-4EFA-A685-26BE3A2D6F61}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Travis Rousey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Highlighted boxes are the ones we should update if any changes.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="136">
   <si>
@@ -447,7 +481,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,6 +503,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -508,7 +555,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -567,30 +614,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -609,17 +636,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -700,80 +716,193 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4481,58 +4610,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33873E7D-5C5F-4C76-AC1C-D81FEE5D415F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33873E7D-5C5F-4C76-AC1C-D81FEE5D415F}">
   <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="7" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="7" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="7" customWidth="1"/>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="7" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="7" customWidth="1"/>
     <col min="11" max="11" width="3.7109375" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K1" t="s">
@@ -4546,37 +4675,37 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="33" t="s">
         <v>72</v>
       </c>
       <c r="K2" s="1">
         <v>2</v>
       </c>
-      <c r="L2" s="12" t="str">
+      <c r="L2" s="5" t="str">
         <f>HLOOKUP($L$1,$B$1:$J$46,K2,FALSE)</f>
         <v>Documentation/SA demo</v>
       </c>
@@ -4585,37 +4714,37 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="35" t="s">
         <v>73</v>
       </c>
       <c r="K3" s="1">
         <v>3</v>
       </c>
-      <c r="L3" s="12" t="str">
+      <c r="L3" s="5" t="str">
         <f>HLOOKUP($L$1,$B$1:$J$46,K3,FALSE)</f>
         <v>Outline Manager and Functions</v>
       </c>
@@ -4624,37 +4753,37 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="35" t="s">
         <v>74</v>
       </c>
       <c r="K4" s="1">
         <v>4</v>
       </c>
-      <c r="L4" s="12" t="str">
+      <c r="L4" s="5" t="str">
         <f t="shared" ref="L4:L46" si="0">HLOOKUP($L$1,$B$1:$J$46,K4,FALSE)</f>
         <v>Build Sound Library</v>
       </c>
@@ -4663,37 +4792,37 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="35" t="s">
         <v>75</v>
       </c>
       <c r="K5" s="1">
         <v>5</v>
       </c>
-      <c r="L5" s="12" t="str">
+      <c r="L5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Working Functions for all possible audio requests</v>
       </c>
@@ -4702,37 +4831,37 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="35" t="s">
         <v>76</v>
       </c>
       <c r="K6" s="1">
         <v>6</v>
       </c>
-      <c r="L6" s="12" t="str">
+      <c r="L6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Testing/Debugging</v>
       </c>
@@ -4741,37 +4870,37 @@
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="35" t="s">
         <v>77</v>
       </c>
       <c r="K7" s="1">
         <v>7</v>
       </c>
-      <c r="L7" s="12" t="str">
+      <c r="L7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Algorithm for dynamic pitch of sounds</v>
       </c>
@@ -4780,37 +4909,37 @@
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="35" t="s">
         <v>78</v>
       </c>
       <c r="K8" s="1">
         <v>8</v>
       </c>
-      <c r="L8" s="12" t="str">
+      <c r="L8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Modify sounds/music for optimal load times</v>
       </c>
@@ -4819,76 +4948,76 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="35" t="s">
         <v>76</v>
       </c>
       <c r="K9" s="1">
         <v>9</v>
       </c>
-      <c r="L9" s="12" t="str">
+      <c r="L9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Testing/Debugging</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="38" t="s">
         <v>79</v>
       </c>
       <c r="K10" s="1">
         <v>10</v>
       </c>
-      <c r="L10" s="12" t="str">
+      <c r="L10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Presentation</v>
       </c>
@@ -4897,37 +5026,37 @@
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="39">
         <v>43115</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="40">
         <v>43115</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="40">
         <v>43115</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="40">
         <v>43115</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="40">
         <v>43115</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="40">
         <v>43115</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="40">
         <v>43115</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="40">
         <v>43115</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="41">
         <v>43115</v>
       </c>
       <c r="K11" s="1">
         <v>11</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="6">
         <f>HLOOKUP($L$1,$B$1:$J$46,K11,FALSE)</f>
         <v>43115</v>
       </c>
@@ -4936,37 +5065,37 @@
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="42">
         <v>43143</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="29">
         <v>43143</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="29">
         <v>43143</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="29">
         <v>43143</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="29">
         <v>43143</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="29">
         <v>43143</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="29">
         <v>43143</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="29">
         <v>43143</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="43">
         <v>43143</v>
       </c>
       <c r="K12" s="1">
         <v>12</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="6">
         <f t="shared" si="0"/>
         <v>43143</v>
       </c>
@@ -4975,37 +5104,37 @@
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="42">
         <v>43150</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="29">
         <v>43150</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="29">
         <v>43157</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="29">
         <v>43150</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="29">
         <v>43150</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="29">
         <v>43150</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="29">
         <v>43157</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="29">
         <v>43150</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="43">
         <v>43150</v>
       </c>
       <c r="K13" s="1">
         <v>13</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="6">
         <f t="shared" si="0"/>
         <v>43150</v>
       </c>
@@ -5014,37 +5143,37 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="42">
         <v>43164</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="29">
         <v>43171</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="29">
         <v>43171</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="29">
         <v>43157</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="29">
         <v>43157</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="29">
         <v>43164</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="29">
         <v>43164</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="29">
         <v>43164</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="43">
         <v>43171</v>
       </c>
       <c r="K14" s="1">
         <v>14</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="6">
         <f t="shared" si="0"/>
         <v>43171</v>
       </c>
@@ -5053,37 +5182,37 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="42">
         <v>43185</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="29">
         <v>43192</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="29">
         <v>43185</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="29">
         <v>43171</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="29">
         <v>43164</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="29">
         <v>43178</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="29">
         <v>43178</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="29">
         <v>43178</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="43">
         <v>43185</v>
       </c>
       <c r="K15" s="1">
         <v>15</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="6">
         <f t="shared" si="0"/>
         <v>43185</v>
       </c>
@@ -5092,37 +5221,37 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="42">
         <v>43199</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="29">
         <v>43199</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="29">
         <v>43199</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="29">
         <v>43185</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="29">
         <v>43192</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="29">
         <v>43192</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="29">
         <v>43192</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="29">
         <v>43185</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="43">
         <v>43192</v>
       </c>
       <c r="K16" s="1">
         <v>16</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="6">
         <f t="shared" si="0"/>
         <v>43192</v>
       </c>
@@ -5131,37 +5260,37 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="42">
         <v>43206</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="29">
         <v>43206</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="29">
         <v>43213</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="29">
         <v>43199</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="29">
         <v>43199</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="29">
         <v>43206</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="29">
         <v>43206</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="29">
         <v>43192</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="43">
         <v>43206</v>
       </c>
       <c r="K17" s="1">
         <v>17</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="6">
         <f t="shared" si="0"/>
         <v>43206</v>
       </c>
@@ -5170,76 +5299,76 @@
       <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="42">
         <v>43213</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="29">
         <v>43213</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="29">
         <v>43220</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="29">
         <v>43213</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="29">
         <v>43213</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="29">
         <v>43220</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="29">
         <v>43213</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="29">
         <v>43206</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="43">
         <v>43220</v>
       </c>
       <c r="K18" s="1">
         <v>18</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="6">
         <f t="shared" si="0"/>
         <v>43220</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="44">
         <v>43220</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="45">
         <v>43220</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="45">
         <v>43223</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="45">
         <v>43220</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="45">
         <v>43223</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="45">
         <v>43223</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="45">
         <v>43220</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="45">
         <v>43220</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="46">
         <v>43223</v>
       </c>
       <c r="K19" s="1">
         <v>19</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="6">
         <f t="shared" si="0"/>
         <v>43223</v>
       </c>
@@ -5248,37 +5377,37 @@
       <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="47">
         <v>28</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="48">
         <v>28</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="48">
         <v>28</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="48">
         <v>28</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="48">
         <v>28</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="48">
         <v>28</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="48">
         <v>28</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="48">
         <v>28</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="49">
         <v>28</v>
       </c>
       <c r="K20" s="1">
         <v>20</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -5287,37 +5416,37 @@
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="22">
-        <v>7</v>
-      </c>
-      <c r="C21" s="10">
-        <v>7</v>
-      </c>
-      <c r="D21" s="31">
-        <v>14</v>
-      </c>
-      <c r="E21" s="10">
-        <v>7</v>
-      </c>
-      <c r="F21" s="31">
-        <v>7</v>
-      </c>
-      <c r="G21" s="10">
-        <v>7</v>
-      </c>
-      <c r="H21" s="31">
-        <v>14</v>
-      </c>
-      <c r="I21" s="10">
-        <v>7</v>
-      </c>
-      <c r="J21" s="39">
+      <c r="B21" s="50">
+        <v>7</v>
+      </c>
+      <c r="C21" s="30">
+        <v>7</v>
+      </c>
+      <c r="D21" s="30">
+        <v>14</v>
+      </c>
+      <c r="E21" s="30">
+        <v>7</v>
+      </c>
+      <c r="F21" s="30">
+        <v>7</v>
+      </c>
+      <c r="G21" s="30">
+        <v>7</v>
+      </c>
+      <c r="H21" s="30">
+        <v>14</v>
+      </c>
+      <c r="I21" s="30">
+        <v>7</v>
+      </c>
+      <c r="J21" s="51">
         <v>7</v>
       </c>
       <c r="K21" s="1">
         <v>21</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -5326,37 +5455,37 @@
       <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="22">
-        <v>14</v>
-      </c>
-      <c r="C22" s="10">
+      <c r="B22" s="50">
+        <v>14</v>
+      </c>
+      <c r="C22" s="30">
         <v>21</v>
       </c>
-      <c r="D22" s="31">
-        <v>14</v>
-      </c>
-      <c r="E22" s="10">
-        <v>7</v>
-      </c>
-      <c r="F22" s="31">
-        <v>7</v>
-      </c>
-      <c r="G22" s="10">
-        <v>14</v>
-      </c>
-      <c r="H22" s="31">
-        <v>7</v>
-      </c>
-      <c r="I22" s="10">
-        <v>14</v>
-      </c>
-      <c r="J22" s="39">
+      <c r="D22" s="30">
+        <v>14</v>
+      </c>
+      <c r="E22" s="30">
+        <v>7</v>
+      </c>
+      <c r="F22" s="30">
+        <v>7</v>
+      </c>
+      <c r="G22" s="30">
+        <v>14</v>
+      </c>
+      <c r="H22" s="30">
+        <v>7</v>
+      </c>
+      <c r="I22" s="30">
+        <v>14</v>
+      </c>
+      <c r="J22" s="51">
         <v>21</v>
       </c>
       <c r="K22" s="1">
         <v>22</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -5365,41 +5494,41 @@
       <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="50">
         <v>21</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="30">
         <v>21</v>
       </c>
-      <c r="D23" s="31">
-        <v>14</v>
-      </c>
-      <c r="E23" s="10">
-        <v>14</v>
-      </c>
-      <c r="F23" s="31">
-        <v>7</v>
-      </c>
-      <c r="G23" s="10">
-        <v>14</v>
-      </c>
-      <c r="H23" s="31">
-        <v>14</v>
-      </c>
-      <c r="I23" s="10">
-        <v>14</v>
-      </c>
-      <c r="J23" s="39">
+      <c r="D23" s="30">
+        <v>14</v>
+      </c>
+      <c r="E23" s="30">
+        <v>14</v>
+      </c>
+      <c r="F23" s="30">
+        <v>7</v>
+      </c>
+      <c r="G23" s="30">
+        <v>14</v>
+      </c>
+      <c r="H23" s="30">
+        <v>14</v>
+      </c>
+      <c r="I23" s="30">
+        <v>14</v>
+      </c>
+      <c r="J23" s="51">
         <v>14</v>
       </c>
       <c r="K23" s="1">
         <v>23</v>
       </c>
-      <c r="L23" s="56">
+      <c r="L23" s="22">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="M23" s="57" t="s">
+      <c r="M23" s="23" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5407,321 +5536,321 @@
       <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="22">
-        <v>14</v>
-      </c>
-      <c r="C24" s="10">
-        <v>7</v>
-      </c>
-      <c r="D24" s="31">
-        <v>14</v>
-      </c>
-      <c r="E24" s="10">
-        <v>14</v>
-      </c>
-      <c r="F24" s="31">
+      <c r="B24" s="50">
+        <v>14</v>
+      </c>
+      <c r="C24" s="30">
+        <v>7</v>
+      </c>
+      <c r="D24" s="30">
+        <v>14</v>
+      </c>
+      <c r="E24" s="30">
+        <v>14</v>
+      </c>
+      <c r="F24" s="30">
         <v>28</v>
       </c>
-      <c r="G24" s="10">
-        <v>14</v>
-      </c>
-      <c r="H24" s="31">
-        <v>14</v>
-      </c>
-      <c r="I24" s="10">
-        <v>7</v>
-      </c>
-      <c r="J24" s="39">
+      <c r="G24" s="30">
+        <v>14</v>
+      </c>
+      <c r="H24" s="30">
+        <v>14</v>
+      </c>
+      <c r="I24" s="30">
+        <v>7</v>
+      </c>
+      <c r="J24" s="51">
         <v>7</v>
       </c>
       <c r="K24" s="1">
         <v>24</v>
       </c>
-      <c r="L24" s="56">
+      <c r="L24" s="22">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M24" s="58"/>
+      <c r="M24" s="24"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="22">
-        <v>7</v>
-      </c>
-      <c r="C25" s="10">
-        <v>7</v>
-      </c>
-      <c r="D25" s="31">
-        <v>14</v>
-      </c>
-      <c r="E25" s="10">
-        <v>14</v>
-      </c>
-      <c r="F25" s="31">
-        <v>7</v>
-      </c>
-      <c r="G25" s="10">
-        <v>14</v>
-      </c>
-      <c r="H25" s="31">
-        <v>14</v>
-      </c>
-      <c r="I25" s="10">
-        <v>7</v>
-      </c>
-      <c r="J25" s="39">
+      <c r="B25" s="50">
+        <v>7</v>
+      </c>
+      <c r="C25" s="30">
+        <v>7</v>
+      </c>
+      <c r="D25" s="30">
+        <v>14</v>
+      </c>
+      <c r="E25" s="30">
+        <v>14</v>
+      </c>
+      <c r="F25" s="30">
+        <v>7</v>
+      </c>
+      <c r="G25" s="30">
+        <v>14</v>
+      </c>
+      <c r="H25" s="30">
+        <v>14</v>
+      </c>
+      <c r="I25" s="30">
+        <v>7</v>
+      </c>
+      <c r="J25" s="51">
         <v>14</v>
       </c>
       <c r="K25" s="1">
         <v>25</v>
       </c>
-      <c r="L25" s="56">
+      <c r="L25" s="22">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="M25" s="59"/>
+      <c r="M25" s="25"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="22">
-        <v>7</v>
-      </c>
-      <c r="C26" s="10">
-        <v>7</v>
-      </c>
-      <c r="D26" s="31">
-        <v>7</v>
-      </c>
-      <c r="E26" s="10">
-        <v>14</v>
-      </c>
-      <c r="F26" s="31">
-        <v>14</v>
-      </c>
-      <c r="G26" s="10">
-        <v>14</v>
-      </c>
-      <c r="H26" s="31">
-        <v>7</v>
-      </c>
-      <c r="I26" s="10">
-        <v>14</v>
-      </c>
-      <c r="J26" s="39">
+      <c r="B26" s="50">
+        <v>7</v>
+      </c>
+      <c r="C26" s="30">
+        <v>7</v>
+      </c>
+      <c r="D26" s="30">
+        <v>7</v>
+      </c>
+      <c r="E26" s="30">
+        <v>14</v>
+      </c>
+      <c r="F26" s="30">
+        <v>14</v>
+      </c>
+      <c r="G26" s="30">
+        <v>14</v>
+      </c>
+      <c r="H26" s="30">
+        <v>7</v>
+      </c>
+      <c r="I26" s="30">
+        <v>14</v>
+      </c>
+      <c r="J26" s="51">
         <v>14</v>
       </c>
       <c r="K26" s="1">
         <v>26</v>
       </c>
-      <c r="L26" s="56">
+      <c r="L26" s="22">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="M26" s="59"/>
+      <c r="M26" s="25"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="22">
-        <v>7</v>
-      </c>
-      <c r="C27" s="10">
-        <v>7</v>
-      </c>
-      <c r="D27" s="31">
+      <c r="B27" s="50">
+        <v>7</v>
+      </c>
+      <c r="C27" s="30">
+        <v>7</v>
+      </c>
+      <c r="D27" s="30">
         <v>3</v>
       </c>
-      <c r="E27" s="10">
-        <v>7</v>
-      </c>
-      <c r="F27" s="31">
+      <c r="E27" s="30">
+        <v>7</v>
+      </c>
+      <c r="F27" s="30">
         <v>10</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="30">
         <v>3</v>
       </c>
-      <c r="H27" s="31">
-        <v>7</v>
-      </c>
-      <c r="I27" s="10">
-        <v>14</v>
-      </c>
-      <c r="J27" s="39">
+      <c r="H27" s="30">
+        <v>7</v>
+      </c>
+      <c r="I27" s="30">
+        <v>14</v>
+      </c>
+      <c r="J27" s="51">
         <v>3</v>
       </c>
       <c r="K27" s="1">
         <v>27</v>
       </c>
-      <c r="L27" s="56">
+      <c r="L27" s="22">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M27" s="59"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M27" s="25"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="52">
         <v>3</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="53">
         <v>3</v>
       </c>
-      <c r="D28" s="32">
-        <v>0</v>
-      </c>
-      <c r="E28" s="11">
+      <c r="D28" s="53">
+        <v>0</v>
+      </c>
+      <c r="E28" s="53">
         <v>3</v>
       </c>
-      <c r="F28" s="32">
-        <v>0</v>
-      </c>
-      <c r="G28" s="11">
-        <v>0</v>
-      </c>
-      <c r="H28" s="32">
+      <c r="F28" s="53">
+        <v>0</v>
+      </c>
+      <c r="G28" s="53">
+        <v>0</v>
+      </c>
+      <c r="H28" s="53">
         <v>3</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="53">
         <v>3</v>
       </c>
-      <c r="J28" s="40">
+      <c r="J28" s="54">
         <v>0</v>
       </c>
       <c r="K28" s="1">
         <v>28</v>
       </c>
-      <c r="L28" s="56">
+      <c r="L28" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M28" s="59"/>
+      <c r="M28" s="25"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="47">
         <v>28</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="48">
         <v>28</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="48">
         <v>28</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="48">
         <v>28</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="48">
         <v>28</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="48">
         <v>28</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="48">
         <v>28</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="48">
         <v>28</v>
       </c>
-      <c r="J29" s="38">
+      <c r="J29" s="49">
         <v>28</v>
       </c>
       <c r="K29" s="1">
         <v>29</v>
       </c>
-      <c r="L29" s="56">
+      <c r="L29" s="22">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="M29" s="59"/>
+      <c r="M29" s="25"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="22">
-        <v>7</v>
-      </c>
-      <c r="C30" s="10">
-        <v>7</v>
-      </c>
-      <c r="D30" s="31">
-        <v>14</v>
-      </c>
-      <c r="E30" s="10">
-        <v>7</v>
-      </c>
-      <c r="F30" s="31">
-        <v>7</v>
-      </c>
-      <c r="G30" s="10">
-        <v>7</v>
-      </c>
-      <c r="H30" s="31">
-        <v>14</v>
-      </c>
-      <c r="I30" s="10">
-        <v>7</v>
-      </c>
-      <c r="J30" s="39">
+      <c r="B30" s="50">
+        <v>7</v>
+      </c>
+      <c r="C30" s="30">
+        <v>7</v>
+      </c>
+      <c r="D30" s="30">
+        <v>14</v>
+      </c>
+      <c r="E30" s="30">
+        <v>7</v>
+      </c>
+      <c r="F30" s="30">
+        <v>7</v>
+      </c>
+      <c r="G30" s="30">
+        <v>7</v>
+      </c>
+      <c r="H30" s="30">
+        <v>14</v>
+      </c>
+      <c r="I30" s="30">
+        <v>7</v>
+      </c>
+      <c r="J30" s="51">
         <v>7</v>
       </c>
       <c r="K30" s="1">
         <v>30</v>
       </c>
-      <c r="L30" s="56">
+      <c r="L30" s="22">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M30" s="59"/>
+      <c r="M30" s="25"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="22">
-        <v>14</v>
-      </c>
-      <c r="C31" s="10">
+      <c r="B31" s="50">
+        <v>14</v>
+      </c>
+      <c r="C31" s="30">
         <v>21</v>
       </c>
-      <c r="D31" s="31">
-        <v>14</v>
-      </c>
-      <c r="E31" s="10">
-        <v>7</v>
-      </c>
-      <c r="F31" s="31">
-        <v>7</v>
-      </c>
-      <c r="G31" s="10">
-        <v>14</v>
-      </c>
-      <c r="H31" s="31">
-        <v>7</v>
-      </c>
-      <c r="I31" s="10">
-        <v>14</v>
-      </c>
-      <c r="J31" s="39">
+      <c r="D31" s="30">
+        <v>14</v>
+      </c>
+      <c r="E31" s="30">
+        <v>7</v>
+      </c>
+      <c r="F31" s="30">
+        <v>7</v>
+      </c>
+      <c r="G31" s="30">
+        <v>14</v>
+      </c>
+      <c r="H31" s="30">
+        <v>7</v>
+      </c>
+      <c r="I31" s="30">
+        <v>14</v>
+      </c>
+      <c r="J31" s="51">
         <v>21</v>
       </c>
       <c r="K31" s="1">
         <v>31</v>
       </c>
-      <c r="L31" s="56">
+      <c r="L31" s="22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="M31" s="57" t="s">
+      <c r="M31" s="23" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5729,290 +5858,290 @@
       <c r="A32" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="22">
-        <v>14</v>
-      </c>
-      <c r="C32" s="10">
-        <v>7</v>
-      </c>
-      <c r="D32" s="31">
-        <v>7</v>
-      </c>
-      <c r="E32" s="10">
-        <v>14</v>
-      </c>
-      <c r="F32" s="31">
-        <v>7</v>
-      </c>
-      <c r="G32" s="10">
-        <v>14</v>
-      </c>
-      <c r="H32" s="31">
-        <v>7</v>
-      </c>
-      <c r="I32" s="10">
-        <v>14</v>
-      </c>
-      <c r="J32" s="39">
+      <c r="B32" s="50">
+        <v>14</v>
+      </c>
+      <c r="C32" s="30">
+        <v>7</v>
+      </c>
+      <c r="D32" s="30">
+        <v>7</v>
+      </c>
+      <c r="E32" s="30">
+        <v>14</v>
+      </c>
+      <c r="F32" s="30">
+        <v>7</v>
+      </c>
+      <c r="G32" s="30">
+        <v>14</v>
+      </c>
+      <c r="H32" s="30">
+        <v>7</v>
+      </c>
+      <c r="I32" s="30">
+        <v>14</v>
+      </c>
+      <c r="J32" s="51">
         <v>7</v>
       </c>
       <c r="K32" s="1">
         <v>32</v>
       </c>
-      <c r="L32" s="56">
+      <c r="L32" s="22">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M32" s="59"/>
+      <c r="M32" s="25"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="22">
-        <v>0</v>
-      </c>
-      <c r="C33" s="10">
-        <v>0</v>
-      </c>
-      <c r="D33" s="31">
-        <v>0</v>
-      </c>
-      <c r="E33" s="10">
-        <v>0</v>
-      </c>
-      <c r="F33" s="31">
-        <v>14</v>
-      </c>
-      <c r="G33" s="54">
-        <v>0</v>
-      </c>
-      <c r="H33" s="31">
-        <v>0</v>
-      </c>
-      <c r="I33" s="10">
-        <v>0</v>
-      </c>
-      <c r="J33" s="39">
+      <c r="B33" s="50">
+        <v>0</v>
+      </c>
+      <c r="C33" s="30">
+        <v>0</v>
+      </c>
+      <c r="D33" s="30">
+        <v>0</v>
+      </c>
+      <c r="E33" s="30">
+        <v>0</v>
+      </c>
+      <c r="F33" s="30">
+        <v>14</v>
+      </c>
+      <c r="G33" s="30">
+        <v>0</v>
+      </c>
+      <c r="H33" s="30">
+        <v>0</v>
+      </c>
+      <c r="I33" s="30">
+        <v>0</v>
+      </c>
+      <c r="J33" s="51">
         <v>0</v>
       </c>
       <c r="K33" s="1">
         <v>33</v>
       </c>
-      <c r="L33" s="56">
+      <c r="L33" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M33" s="59"/>
+      <c r="M33" s="25"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="22">
-        <v>0</v>
-      </c>
-      <c r="C34" s="10">
-        <v>0</v>
-      </c>
-      <c r="D34" s="31">
-        <v>0</v>
-      </c>
-      <c r="E34" s="10">
-        <v>0</v>
-      </c>
-      <c r="F34" s="31">
-        <v>0</v>
-      </c>
-      <c r="G34" s="10">
-        <v>0</v>
-      </c>
-      <c r="H34" s="31">
-        <v>0</v>
-      </c>
-      <c r="I34" s="10">
-        <v>0</v>
-      </c>
-      <c r="J34" s="39">
+      <c r="B34" s="50">
+        <v>0</v>
+      </c>
+      <c r="C34" s="30">
+        <v>0</v>
+      </c>
+      <c r="D34" s="30">
+        <v>0</v>
+      </c>
+      <c r="E34" s="30">
+        <v>0</v>
+      </c>
+      <c r="F34" s="30">
+        <v>0</v>
+      </c>
+      <c r="G34" s="30">
+        <v>0</v>
+      </c>
+      <c r="H34" s="30">
+        <v>0</v>
+      </c>
+      <c r="I34" s="30">
+        <v>0</v>
+      </c>
+      <c r="J34" s="51">
         <v>0</v>
       </c>
       <c r="K34" s="1">
         <v>34</v>
       </c>
-      <c r="L34" s="56">
+      <c r="L34" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M34" s="59"/>
+      <c r="M34" s="25"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="22">
-        <v>0</v>
-      </c>
-      <c r="C35" s="10">
-        <v>0</v>
-      </c>
-      <c r="D35" s="31">
-        <v>0</v>
-      </c>
-      <c r="E35" s="10">
-        <v>0</v>
-      </c>
-      <c r="F35" s="31">
-        <v>0</v>
-      </c>
-      <c r="G35" s="10">
-        <v>0</v>
-      </c>
-      <c r="H35" s="31">
-        <v>0</v>
-      </c>
-      <c r="I35" s="10">
-        <v>0</v>
-      </c>
-      <c r="J35" s="39">
+      <c r="B35" s="50">
+        <v>0</v>
+      </c>
+      <c r="C35" s="30">
+        <v>0</v>
+      </c>
+      <c r="D35" s="30">
+        <v>0</v>
+      </c>
+      <c r="E35" s="30">
+        <v>0</v>
+      </c>
+      <c r="F35" s="30">
+        <v>0</v>
+      </c>
+      <c r="G35" s="30">
+        <v>0</v>
+      </c>
+      <c r="H35" s="30">
+        <v>0</v>
+      </c>
+      <c r="I35" s="30">
+        <v>0</v>
+      </c>
+      <c r="J35" s="51">
         <v>0</v>
       </c>
       <c r="K35" s="1">
         <v>35</v>
       </c>
-      <c r="L35" s="56">
+      <c r="L35" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M35" s="59"/>
+      <c r="M35" s="25"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="22">
-        <v>0</v>
-      </c>
-      <c r="C36" s="10">
-        <v>0</v>
-      </c>
-      <c r="D36" s="31">
-        <v>0</v>
-      </c>
-      <c r="E36" s="10">
-        <v>0</v>
-      </c>
-      <c r="F36" s="31">
-        <v>0</v>
-      </c>
-      <c r="G36" s="10">
-        <v>0</v>
-      </c>
-      <c r="H36" s="31">
-        <v>0</v>
-      </c>
-      <c r="I36" s="10">
-        <v>0</v>
-      </c>
-      <c r="J36" s="39">
+      <c r="B36" s="50">
+        <v>0</v>
+      </c>
+      <c r="C36" s="30">
+        <v>0</v>
+      </c>
+      <c r="D36" s="30">
+        <v>0</v>
+      </c>
+      <c r="E36" s="30">
+        <v>0</v>
+      </c>
+      <c r="F36" s="30">
+        <v>0</v>
+      </c>
+      <c r="G36" s="30">
+        <v>0</v>
+      </c>
+      <c r="H36" s="30">
+        <v>0</v>
+      </c>
+      <c r="I36" s="30">
+        <v>0</v>
+      </c>
+      <c r="J36" s="51">
         <v>0</v>
       </c>
       <c r="K36" s="1">
         <v>36</v>
       </c>
-      <c r="L36" s="56">
+      <c r="L36" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M36" s="59"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="25"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="23">
-        <v>0</v>
-      </c>
-      <c r="C37" s="11">
-        <v>0</v>
-      </c>
-      <c r="D37" s="32">
-        <v>0</v>
-      </c>
-      <c r="E37" s="11">
-        <v>0</v>
-      </c>
-      <c r="F37" s="32">
-        <v>0</v>
-      </c>
-      <c r="G37" s="11">
-        <v>0</v>
-      </c>
-      <c r="H37" s="32">
-        <v>0</v>
-      </c>
-      <c r="I37" s="11">
-        <v>0</v>
-      </c>
-      <c r="J37" s="40">
+      <c r="B37" s="52">
+        <v>0</v>
+      </c>
+      <c r="C37" s="53">
+        <v>0</v>
+      </c>
+      <c r="D37" s="53">
+        <v>0</v>
+      </c>
+      <c r="E37" s="53">
+        <v>0</v>
+      </c>
+      <c r="F37" s="53">
+        <v>0</v>
+      </c>
+      <c r="G37" s="53">
+        <v>0</v>
+      </c>
+      <c r="H37" s="53">
+        <v>0</v>
+      </c>
+      <c r="I37" s="53">
+        <v>0</v>
+      </c>
+      <c r="J37" s="54">
         <v>0</v>
       </c>
       <c r="K37" s="1">
         <v>37</v>
       </c>
-      <c r="L37" s="56">
+      <c r="L37" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M37" s="59"/>
+      <c r="M37" s="25"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="47">
         <f>B20-B29</f>
         <v>0</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="32">
         <f t="shared" ref="C38:J38" si="1">C20-C29</f>
         <v>0</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H38" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J38" s="15">
+      <c r="J38" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K38" s="1">
         <v>38</v>
       </c>
-      <c r="L38" s="56">
+      <c r="L38" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M38" s="57" t="s">
+      <c r="M38" s="23" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6020,409 +6149,409 @@
       <c r="A39" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="34">
         <f t="shared" ref="B39:J46" si="2">B21-B30</f>
         <v>0</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D39" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F39" s="25">
+      <c r="F39" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H39" s="25">
+      <c r="H39" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J39" s="33">
+      <c r="J39" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K39" s="1">
         <v>39</v>
       </c>
-      <c r="L39" s="56">
+      <c r="L39" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M39" s="59"/>
+      <c r="M39" s="25"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D40" s="25">
+      <c r="D40" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F40" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J40" s="33">
+      <c r="J40" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K40" s="1">
         <v>40</v>
       </c>
-      <c r="L40" s="56">
+      <c r="L40" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M40" s="59"/>
+      <c r="M40" s="25"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="34">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="28">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="D41" s="25">
+      <c r="D41" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F41" s="25">
+      <c r="F41" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H41" s="25">
+      <c r="H41" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J41" s="33">
+      <c r="J41" s="35">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="K41" s="1">
         <v>41</v>
       </c>
-      <c r="L41" s="56">
+      <c r="L41" s="22">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M41" s="59"/>
+      <c r="M41" s="25"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="34">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="28">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="28">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F42" s="28">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="28">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="H42" s="25">
+      <c r="H42" s="28">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="J42" s="33">
+      <c r="J42" s="35">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="K42" s="1">
         <v>42</v>
       </c>
-      <c r="L42" s="56">
+      <c r="L42" s="22">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M42" s="59"/>
+      <c r="M42" s="25"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="34">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="D43" s="25">
+      <c r="D43" s="28">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="28">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="F43" s="25">
+      <c r="F43" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="28">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="H43" s="25">
+      <c r="H43" s="28">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="J43" s="33">
+      <c r="J43" s="35">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="K43" s="1">
         <v>43</v>
       </c>
-      <c r="L43" s="56">
+      <c r="L43" s="22">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="M43" s="59"/>
+      <c r="M43" s="25"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="34">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D44" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="28">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="F44" s="25">
+      <c r="F44" s="28">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="28">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="H44" s="25">
+      <c r="H44" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="28">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="J44" s="33">
+      <c r="J44" s="35">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="K44" s="1">
         <v>44</v>
       </c>
-      <c r="L44" s="56">
+      <c r="L44" s="22">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="M44" s="59"/>
+      <c r="M44" s="25"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="34">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="28">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F45" s="25">
+      <c r="F45" s="28">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="28">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H45" s="25">
+      <c r="H45" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="28">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="J45" s="33">
+      <c r="J45" s="35">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="K45" s="1">
         <v>45</v>
       </c>
-      <c r="L45" s="56">
+      <c r="L45" s="22">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M45" s="60"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M45" s="26"/>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="36">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="37">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="D46" s="26">
+      <c r="D46" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="37">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F46" s="26">
+      <c r="F46" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H46" s="26">
+      <c r="H46" s="37">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46" s="37">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J46" s="34">
+      <c r="J46" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K46" s="1">
         <v>46</v>
       </c>
-      <c r="L46" s="56">
+      <c r="L46" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M46" s="59" t="s">
+      <c r="M46" s="25" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C47" s="52"/>
-      <c r="M47" s="59"/>
+      <c r="C47" s="2"/>
+      <c r="M47" s="25"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C48" s="61">
+      <c r="C48" s="27">
         <f>B11</f>
         <v>43115</v>
       </c>
-      <c r="D48" s="14" t="str">
+      <c r="D48" s="7" t="str">
         <f>B2</f>
         <v>Documentation/SA demo</v>
       </c>
@@ -6430,18 +6559,18 @@
         <f>B29</f>
         <v>28</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F48" s="7">
         <f>B38</f>
         <v>0</v>
       </c>
-      <c r="M48" s="59"/>
+      <c r="M48" s="25"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C49" s="61">
+      <c r="C49" s="27">
         <f t="shared" ref="C49:C56" si="3">B12</f>
         <v>43143</v>
       </c>
-      <c r="D49" s="14" t="str">
+      <c r="D49" s="7" t="str">
         <f t="shared" ref="D49:D56" si="4">B3</f>
         <v>Specify data structure for rooms and doors</v>
       </c>
@@ -6449,18 +6578,18 @@
         <f t="shared" ref="E49:E56" si="5">B30</f>
         <v>7</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="7">
         <f t="shared" ref="F49:F56" si="6">B39</f>
         <v>0</v>
       </c>
-      <c r="M49" s="59"/>
+      <c r="M49" s="25"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C50" s="61">
+      <c r="C50" s="27">
         <f t="shared" si="3"/>
         <v>43150</v>
       </c>
-      <c r="D50" s="14" t="str">
+      <c r="D50" s="7" t="str">
         <f t="shared" si="4"/>
         <v>setup room generation algorithms</v>
       </c>
@@ -6468,18 +6597,18 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F50" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M50" s="59"/>
+      <c r="M50" s="25"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C51" s="61">
+      <c r="C51" s="27">
         <f t="shared" si="3"/>
         <v>43164</v>
       </c>
-      <c r="D51" s="14" t="str">
+      <c r="D51" s="7" t="str">
         <f t="shared" si="4"/>
         <v>get initial main path of rooms generating (from start to middle to end)</v>
       </c>
@@ -6487,18 +6616,18 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F51" s="7">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="M51" s="60"/>
+      <c r="M51" s="26"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C52" s="61">
+      <c r="C52" s="27">
         <f t="shared" si="3"/>
         <v>43185</v>
       </c>
-      <c r="D52" s="14" t="str">
+      <c r="D52" s="7" t="str">
         <f t="shared" si="4"/>
         <v>get branching rooms to generate</v>
       </c>
@@ -6506,20 +6635,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F52" s="7">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="M52" s="59" t="s">
+      <c r="M52" s="25" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C53" s="61">
+      <c r="C53" s="27">
         <f t="shared" si="3"/>
         <v>43199</v>
       </c>
-      <c r="D53" s="14" t="str">
+      <c r="D53" s="7" t="str">
         <f t="shared" si="4"/>
         <v>generate visuals for rooms</v>
       </c>
@@ -6527,18 +6656,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F53" s="7">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="M53" s="59"/>
+      <c r="M53" s="25"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C54" s="61">
+      <c r="C54" s="27">
         <f t="shared" si="3"/>
         <v>43206</v>
       </c>
-      <c r="D54" s="14" t="str">
+      <c r="D54" s="7" t="str">
         <f t="shared" si="4"/>
         <v>Create physics colliders around rooms</v>
       </c>
@@ -6546,18 +6675,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F54" s="7">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="M54" s="59"/>
+      <c r="M54" s="25"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C55" s="61">
+      <c r="C55" s="27">
         <f t="shared" si="3"/>
         <v>43213</v>
       </c>
-      <c r="D55" s="14" t="str">
+      <c r="D55" s="7" t="str">
         <f t="shared" si="4"/>
         <v>Populate rooms with enemies &amp; items</v>
       </c>
@@ -6565,18 +6694,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F55" s="7">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="M55" s="59"/>
+      <c r="M55" s="25"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C56" s="61">
+      <c r="C56" s="27">
         <f t="shared" si="3"/>
         <v>43220</v>
       </c>
-      <c r="D56" s="14" t="str">
+      <c r="D56" s="7" t="str">
         <f t="shared" si="4"/>
         <v>Spawn player object in start room, and exit object in end room.</v>
       </c>
@@ -6584,21 +6713,21 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F56" s="7">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M56" s="59"/>
+      <c r="M56" s="25"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="3">
         <f>C11</f>
         <v>43115</v>
       </c>
-      <c r="D57" s="14" t="str">
+      <c r="D57" s="7" t="str">
         <f>C2</f>
         <v>Documentation/SA demo</v>
       </c>
@@ -6606,18 +6735,18 @@
         <f>C29</f>
         <v>28</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F57" s="7">
         <f>C38</f>
         <v>0</v>
       </c>
-      <c r="M57" s="60"/>
+      <c r="M57" s="26"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C58" s="7">
+      <c r="C58" s="4">
         <f t="shared" ref="C58:C65" si="7">C12</f>
         <v>43143</v>
       </c>
-      <c r="D58" s="14" t="str">
+      <c r="D58" s="7" t="str">
         <f t="shared" ref="D58:D65" si="8">C3</f>
         <v>Write Public functions, basic structure</v>
       </c>
@@ -6625,20 +6754,20 @@
         <f t="shared" ref="E58:E65" si="9">C30</f>
         <v>7</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F58" s="7">
         <f t="shared" ref="F58:F65" si="10">C39</f>
         <v>0</v>
       </c>
-      <c r="M58" s="59" t="s">
+      <c r="M58" s="25" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C59" s="7">
+      <c r="C59" s="4">
         <f t="shared" si="7"/>
         <v>43150</v>
       </c>
-      <c r="D59" s="14" t="str">
+      <c r="D59" s="7" t="str">
         <f t="shared" si="8"/>
         <v>Program core features</v>
       </c>
@@ -6646,18 +6775,18 @@
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F59" s="7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M59" s="59"/>
+      <c r="M59" s="25"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C60" s="7">
+      <c r="C60" s="4">
         <f t="shared" si="7"/>
         <v>43171</v>
       </c>
-      <c r="D60" s="14" t="str">
+      <c r="D60" s="7" t="str">
         <f t="shared" si="8"/>
         <v>Program optional features</v>
       </c>
@@ -6665,18 +6794,18 @@
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F60" s="7">
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="M60" s="59"/>
+      <c r="M60" s="25"/>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C61" s="7">
+      <c r="C61" s="4">
         <f t="shared" si="7"/>
         <v>43192</v>
       </c>
-      <c r="D61" s="14" t="str">
+      <c r="D61" s="7" t="str">
         <f t="shared" si="8"/>
         <v>Debug main features</v>
       </c>
@@ -6684,18 +6813,18 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F61" s="7">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="M61" s="59"/>
+      <c r="M61" s="25"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C62" s="7">
+      <c r="C62" s="4">
         <f t="shared" si="7"/>
         <v>43199</v>
       </c>
-      <c r="D62" s="14" t="str">
+      <c r="D62" s="7" t="str">
         <f t="shared" si="8"/>
         <v>Debug optional features</v>
       </c>
@@ -6703,18 +6832,18 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F62" s="7">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="M62" s="59"/>
+      <c r="M62" s="25"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C63" s="7">
+      <c r="C63" s="4">
         <f t="shared" si="7"/>
         <v>43206</v>
       </c>
-      <c r="D63" s="14" t="str">
+      <c r="D63" s="7" t="str">
         <f t="shared" si="8"/>
         <v>Documentation</v>
       </c>
@@ -6722,18 +6851,18 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F63" s="7">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="M63" s="59"/>
+      <c r="M63" s="25"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C64" s="7">
+      <c r="C64" s="4">
         <f t="shared" si="7"/>
         <v>43213</v>
       </c>
-      <c r="D64" s="14" t="str">
+      <c r="D64" s="7" t="str">
         <f t="shared" si="8"/>
         <v>Testing</v>
       </c>
@@ -6741,18 +6870,18 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F64" s="7">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="M64" s="60"/>
+      <c r="M64" s="26"/>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C65" s="7">
+      <c r="C65" s="4">
         <f t="shared" si="7"/>
         <v>43220</v>
       </c>
-      <c r="D65" s="14" t="str">
+      <c r="D65" s="7" t="str">
         <f t="shared" si="8"/>
         <v>Release Build</v>
       </c>
@@ -6760,23 +6889,23 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F65" s="14">
+      <c r="F65" s="7">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="M65" s="59" t="s">
+      <c r="M65" s="25" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="4">
         <f>D11</f>
         <v>43115</v>
       </c>
-      <c r="D66" s="14" t="str">
+      <c r="D66" s="7" t="str">
         <f>C2</f>
         <v>Documentation/SA demo</v>
       </c>
@@ -6784,18 +6913,18 @@
         <f>D29</f>
         <v>28</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F66" s="7">
         <f>D38</f>
         <v>0</v>
       </c>
-      <c r="M66" s="59"/>
+      <c r="M66" s="25"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C67" s="7">
+      <c r="C67" s="4">
         <f t="shared" ref="C67:C74" si="11">D12</f>
         <v>43143</v>
       </c>
-      <c r="D67" s="14" t="str">
+      <c r="D67" s="7" t="str">
         <f t="shared" ref="D67:D74" si="12">C3</f>
         <v>Write Public functions, basic structure</v>
       </c>
@@ -6803,18 +6932,18 @@
         <f t="shared" ref="E67:E74" si="13">D30</f>
         <v>14</v>
       </c>
-      <c r="F67" s="14">
+      <c r="F67" s="7">
         <f t="shared" ref="F67:F74" si="14">D39</f>
         <v>0</v>
       </c>
-      <c r="M67" s="59"/>
+      <c r="M67" s="25"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C68" s="7">
+      <c r="C68" s="4">
         <f t="shared" si="11"/>
         <v>43157</v>
       </c>
-      <c r="D68" s="14" t="str">
+      <c r="D68" s="7" t="str">
         <f t="shared" si="12"/>
         <v>Program core features</v>
       </c>
@@ -6822,18 +6951,18 @@
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F68" s="7">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M68" s="59"/>
+      <c r="M68" s="25"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C69" s="7">
+      <c r="C69" s="4">
         <f t="shared" si="11"/>
         <v>43171</v>
       </c>
-      <c r="D69" s="14" t="str">
+      <c r="D69" s="7" t="str">
         <f t="shared" si="12"/>
         <v>Program optional features</v>
       </c>
@@ -6841,18 +6970,18 @@
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F69" s="7">
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="M69" s="59"/>
+      <c r="M69" s="25"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C70" s="7">
+      <c r="C70" s="4">
         <f t="shared" si="11"/>
         <v>43185</v>
       </c>
-      <c r="D70" s="14" t="str">
+      <c r="D70" s="7" t="str">
         <f t="shared" si="12"/>
         <v>Debug main features</v>
       </c>
@@ -6860,18 +6989,18 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F70" s="14">
+      <c r="F70" s="7">
         <f t="shared" si="14"/>
         <v>14</v>
       </c>
-      <c r="M70" s="60"/>
+      <c r="M70" s="26"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C71" s="7">
+      <c r="C71" s="4">
         <f t="shared" si="11"/>
         <v>43199</v>
       </c>
-      <c r="D71" s="14" t="str">
+      <c r="D71" s="7" t="str">
         <f t="shared" si="12"/>
         <v>Debug optional features</v>
       </c>
@@ -6879,20 +7008,20 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F71" s="14">
+      <c r="F71" s="7">
         <f t="shared" si="14"/>
         <v>14</v>
       </c>
-      <c r="M71" s="59" t="s">
+      <c r="M71" s="25" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C72" s="7">
+      <c r="C72" s="4">
         <f t="shared" si="11"/>
         <v>43213</v>
       </c>
-      <c r="D72" s="14" t="str">
+      <c r="D72" s="7" t="str">
         <f t="shared" si="12"/>
         <v>Documentation</v>
       </c>
@@ -6900,18 +7029,18 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F72" s="7">
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="M72" s="59"/>
+      <c r="M72" s="25"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C73" s="7">
+      <c r="C73" s="4">
         <f t="shared" si="11"/>
         <v>43220</v>
       </c>
-      <c r="D73" s="14" t="str">
+      <c r="D73" s="7" t="str">
         <f t="shared" si="12"/>
         <v>Testing</v>
       </c>
@@ -6919,18 +7048,18 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F73" s="14">
+      <c r="F73" s="7">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="M73" s="59"/>
+      <c r="M73" s="25"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C74" s="7">
+      <c r="C74" s="4">
         <f t="shared" si="11"/>
         <v>43223</v>
       </c>
-      <c r="D74" s="14" t="str">
+      <c r="D74" s="7" t="str">
         <f t="shared" si="12"/>
         <v>Release Build</v>
       </c>
@@ -6938,21 +7067,21 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F74" s="14">
+      <c r="F74" s="7">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M74" s="59"/>
+      <c r="M74" s="25"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="4">
         <f>E11</f>
         <v>43115</v>
       </c>
-      <c r="D75" s="14" t="str">
+      <c r="D75" s="7" t="str">
         <f>D2</f>
         <v>Documentation/SA demo</v>
       </c>
@@ -6960,18 +7089,18 @@
         <f>E29</f>
         <v>28</v>
       </c>
-      <c r="F75" s="14">
+      <c r="F75" s="7">
         <f>E38</f>
         <v>0</v>
       </c>
-      <c r="M75" s="59"/>
+      <c r="M75" s="25"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C76" s="7">
+      <c r="C76" s="4">
         <f t="shared" ref="C76:C82" si="15">E12</f>
         <v>43143</v>
       </c>
-      <c r="D76" s="14" t="str">
+      <c r="D76" s="7" t="str">
         <f t="shared" ref="D76:D82" si="16">D3</f>
         <v>Learning C#/Unity</v>
       </c>
@@ -6979,18 +7108,18 @@
         <f t="shared" ref="E76:E82" si="17">E30</f>
         <v>7</v>
       </c>
-      <c r="F76" s="14">
+      <c r="F76" s="7">
         <f t="shared" ref="F76:F82" si="18">E39</f>
         <v>0</v>
       </c>
-      <c r="M76" s="60"/>
+      <c r="M76" s="26"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C77" s="7">
+      <c r="C77" s="4">
         <f t="shared" si="15"/>
         <v>43150</v>
       </c>
-      <c r="D77" s="14" t="str">
+      <c r="D77" s="7" t="str">
         <f t="shared" si="16"/>
         <v>Parsing the data from others</v>
       </c>
@@ -6998,20 +7127,20 @@
         <f t="shared" si="17"/>
         <v>7</v>
       </c>
-      <c r="F77" s="14">
+      <c r="F77" s="7">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M77" s="59" t="s">
+      <c r="M77" s="25" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C78" s="7">
+      <c r="C78" s="4">
         <f t="shared" si="15"/>
         <v>43157</v>
       </c>
-      <c r="D78" s="14" t="str">
+      <c r="D78" s="7" t="str">
         <f t="shared" si="16"/>
         <v>Encoding it in some standard</v>
       </c>
@@ -7019,18 +7148,18 @@
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="F78" s="14">
+      <c r="F78" s="7">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M78" s="59"/>
+      <c r="M78" s="25"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C79" s="7">
+      <c r="C79" s="4">
         <f t="shared" si="15"/>
         <v>43171</v>
       </c>
-      <c r="D79" s="14" t="str">
+      <c r="D79" s="7" t="str">
         <f t="shared" si="16"/>
         <v>Reading/Writing to disk</v>
       </c>
@@ -7038,18 +7167,18 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F79" s="14">
+      <c r="F79" s="7">
         <f t="shared" si="18"/>
         <v>14</v>
       </c>
-      <c r="M79" s="59"/>
+      <c r="M79" s="25"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C80" s="7">
+      <c r="C80" s="4">
         <f t="shared" si="15"/>
         <v>43185</v>
       </c>
-      <c r="D80" s="14" t="str">
+      <c r="D80" s="7" t="str">
         <f t="shared" si="16"/>
         <v>Parsing data from disk</v>
       </c>
@@ -7057,18 +7186,18 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F80" s="14">
+      <c r="F80" s="7">
         <f t="shared" si="18"/>
         <v>14</v>
       </c>
-      <c r="M80" s="59"/>
+      <c r="M80" s="25"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C81" s="7">
+      <c r="C81" s="4">
         <f t="shared" si="15"/>
         <v>43199</v>
       </c>
-      <c r="D81" s="14" t="str">
+      <c r="D81" s="7" t="str">
         <f t="shared" si="16"/>
         <v>Passing data in a useful way to the others</v>
       </c>
@@ -7076,18 +7205,18 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F81" s="14">
+      <c r="F81" s="7">
         <f t="shared" si="18"/>
         <v>14</v>
       </c>
-      <c r="M81" s="59"/>
+      <c r="M81" s="25"/>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C82" s="7">
+      <c r="C82" s="4">
         <f t="shared" si="15"/>
         <v>43213</v>
       </c>
-      <c r="D82" s="14" t="str">
+      <c r="D82" s="7" t="str">
         <f t="shared" si="16"/>
         <v>Testing</v>
       </c>
@@ -7095,21 +7224,21 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F82" s="14">
+      <c r="F82" s="7">
         <f t="shared" si="18"/>
         <v>7</v>
       </c>
-      <c r="M82" s="59"/>
+      <c r="M82" s="25"/>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="4">
         <f>F11</f>
         <v>43115</v>
       </c>
-      <c r="D83" s="14" t="str">
+      <c r="D83" s="7" t="str">
         <f>F2</f>
         <v>Documentation/SA demo</v>
       </c>
@@ -7117,18 +7246,18 @@
         <f>F29</f>
         <v>28</v>
       </c>
-      <c r="F83" s="14">
+      <c r="F83" s="7">
         <f>F38</f>
         <v>0</v>
       </c>
-      <c r="M83" s="59"/>
+      <c r="M83" s="25"/>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C84" s="7">
+      <c r="C84" s="4">
         <f t="shared" ref="C84:C90" si="19">F12</f>
         <v>43143</v>
       </c>
-      <c r="D84" s="14" t="str">
+      <c r="D84" s="7" t="str">
         <f t="shared" ref="D84:D90" si="20">F3</f>
         <v>Write Skeleton Code/Public Headers</v>
       </c>
@@ -7136,18 +7265,18 @@
         <f t="shared" ref="E84:E90" si="21">F30</f>
         <v>7</v>
       </c>
-      <c r="F84" s="14">
+      <c r="F84" s="7">
         <f t="shared" ref="F84:F90" si="22">F39</f>
         <v>0</v>
       </c>
-      <c r="M84" s="60"/>
+      <c r="M84" s="26"/>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C85" s="7">
+      <c r="C85" s="4">
         <f t="shared" si="19"/>
         <v>43150</v>
       </c>
-      <c r="D85" s="14" t="str">
+      <c r="D85" s="7" t="str">
         <f t="shared" si="20"/>
         <v>Write Acceptance Test plan</v>
       </c>
@@ -7155,17 +7284,17 @@
         <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="F85" s="14">
+      <c r="F85" s="7">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C86" s="7">
+      <c r="C86" s="4">
         <f t="shared" si="19"/>
         <v>43157</v>
       </c>
-      <c r="D86" s="14" t="str">
+      <c r="D86" s="7" t="str">
         <f t="shared" si="20"/>
         <v>Write classes that will be inheritated by enemy class</v>
       </c>
@@ -7173,17 +7302,17 @@
         <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="F86" s="14">
+      <c r="F86" s="7">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C87" s="7">
+      <c r="C87" s="4">
         <f t="shared" si="19"/>
         <v>43164</v>
       </c>
-      <c r="D87" s="14" t="str">
+      <c r="D87" s="7" t="str">
         <f t="shared" si="20"/>
         <v>Write remaining core features</v>
       </c>
@@ -7191,17 +7320,17 @@
         <f t="shared" si="21"/>
         <v>14</v>
       </c>
-      <c r="F87" s="14">
+      <c r="F87" s="7">
         <f t="shared" si="22"/>
         <v>14</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C88" s="7">
+      <c r="C88" s="4">
         <f t="shared" si="19"/>
         <v>43192</v>
       </c>
-      <c r="D88" s="14" t="str">
+      <c r="D88" s="7" t="str">
         <f t="shared" si="20"/>
         <v>Update Gantt Chart</v>
       </c>
@@ -7209,17 +7338,17 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F88" s="14">
+      <c r="F88" s="7">
         <f t="shared" si="22"/>
         <v>7</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C89" s="7">
+      <c r="C89" s="4">
         <f t="shared" si="19"/>
         <v>43199</v>
       </c>
-      <c r="D89" s="14" t="str">
+      <c r="D89" s="7" t="str">
         <f t="shared" si="20"/>
         <v>Finish coding any missing features</v>
       </c>
@@ -7227,17 +7356,17 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F89" s="14">
+      <c r="F89" s="7">
         <f t="shared" si="22"/>
         <v>14</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C90" s="7">
+      <c r="C90" s="4">
         <f t="shared" si="19"/>
         <v>43213</v>
       </c>
-      <c r="D90" s="14" t="str">
+      <c r="D90" s="7" t="str">
         <f t="shared" si="20"/>
         <v>Test Release Candidate Make last-minute changes</v>
       </c>
@@ -7245,20 +7374,20 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F90" s="14">
+      <c r="F90" s="7">
         <f t="shared" si="22"/>
         <v>10</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="4">
         <f>G11</f>
         <v>43115</v>
       </c>
-      <c r="D91" s="14" t="str">
+      <c r="D91" s="7" t="str">
         <f>G2</f>
         <v>Documentation/SA demo</v>
       </c>
@@ -7266,17 +7395,17 @@
         <f>G29</f>
         <v>28</v>
       </c>
-      <c r="F91" s="14">
+      <c r="F91" s="7">
         <f>G38</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C92" s="7">
+      <c r="C92" s="4">
         <f t="shared" ref="C92:C98" si="23">G12</f>
         <v>43143</v>
       </c>
-      <c r="D92" s="14" t="str">
+      <c r="D92" s="7" t="str">
         <f t="shared" ref="D92:D98" si="24">G3</f>
         <v>Learn Unity</v>
       </c>
@@ -7284,17 +7413,17 @@
         <f t="shared" ref="E92:E98" si="25">G30</f>
         <v>7</v>
       </c>
-      <c r="F92" s="14">
+      <c r="F92" s="7">
         <f t="shared" ref="F92:F98" si="26">G39</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C93" s="7">
+      <c r="C93" s="4">
         <f t="shared" si="23"/>
         <v>43150</v>
       </c>
-      <c r="D93" s="14" t="str">
+      <c r="D93" s="7" t="str">
         <f t="shared" si="24"/>
         <v>Code feature</v>
       </c>
@@ -7302,17 +7431,17 @@
         <f t="shared" si="25"/>
         <v>14</v>
       </c>
-      <c r="F93" s="14">
+      <c r="F93" s="7">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C94" s="7">
+      <c r="C94" s="4">
         <f t="shared" si="23"/>
         <v>43164</v>
       </c>
-      <c r="D94" s="14" t="str">
+      <c r="D94" s="7" t="str">
         <f t="shared" si="24"/>
         <v>Test Code</v>
       </c>
@@ -7320,17 +7449,17 @@
         <f t="shared" si="25"/>
         <v>14</v>
       </c>
-      <c r="F94" s="14">
+      <c r="F94" s="7">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C95" s="7">
+      <c r="C95" s="4">
         <f t="shared" si="23"/>
         <v>43178</v>
       </c>
-      <c r="D95" s="14" t="str">
+      <c r="D95" s="7" t="str">
         <f t="shared" si="24"/>
         <v>Join code with rest of teams</v>
       </c>
@@ -7338,17 +7467,17 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F95" s="14">
+      <c r="F95" s="7">
         <f t="shared" si="26"/>
         <v>14</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C96" s="7">
+      <c r="C96" s="4">
         <f t="shared" si="23"/>
         <v>43192</v>
       </c>
-      <c r="D96" s="14" t="str">
+      <c r="D96" s="7" t="str">
         <f t="shared" si="24"/>
         <v>Debugging</v>
       </c>
@@ -7356,17 +7485,17 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F96" s="14">
+      <c r="F96" s="7">
         <f t="shared" si="26"/>
         <v>14</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C97" s="7">
+      <c r="C97" s="4">
         <f t="shared" si="23"/>
         <v>43206</v>
       </c>
-      <c r="D97" s="14" t="str">
+      <c r="D97" s="7" t="str">
         <f t="shared" si="24"/>
         <v>Rejoining code with teams</v>
       </c>
@@ -7374,17 +7503,17 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F97" s="14">
+      <c r="F97" s="7">
         <f t="shared" si="26"/>
         <v>14</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C98" s="7">
+      <c r="C98" s="4">
         <f t="shared" si="23"/>
         <v>43220</v>
       </c>
-      <c r="D98" s="14" t="str">
+      <c r="D98" s="7" t="str">
         <f t="shared" si="24"/>
         <v>Playing game to ensure works</v>
       </c>
@@ -7392,20 +7521,20 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F98" s="14">
+      <c r="F98" s="7">
         <f t="shared" si="26"/>
         <v>3</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99" s="4">
         <f>H11</f>
         <v>43115</v>
       </c>
-      <c r="D99" s="14" t="str">
+      <c r="D99" s="7" t="str">
         <f>H2</f>
         <v>Documentation/SA demo</v>
       </c>
@@ -7413,17 +7542,17 @@
         <f>H29</f>
         <v>28</v>
       </c>
-      <c r="F99" s="14">
+      <c r="F99" s="7">
         <f>H38</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C100" s="7">
+      <c r="C100" s="4">
         <f t="shared" ref="C100:C106" si="27">H12</f>
         <v>43143</v>
       </c>
-      <c r="D100" s="14" t="str">
+      <c r="D100" s="7" t="str">
         <f t="shared" ref="D100:D106" si="28">H3</f>
         <v>Create Inventory</v>
       </c>
@@ -7431,17 +7560,17 @@
         <f t="shared" ref="E100:E106" si="29">H30</f>
         <v>14</v>
       </c>
-      <c r="F100" s="14">
+      <c r="F100" s="7">
         <f t="shared" ref="F100:F106" si="30">H39</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C101" s="7">
+      <c r="C101" s="4">
         <f t="shared" si="27"/>
         <v>43157</v>
       </c>
-      <c r="D101" s="14" t="str">
+      <c r="D101" s="7" t="str">
         <f t="shared" si="28"/>
         <v>Create test Items</v>
       </c>
@@ -7449,17 +7578,17 @@
         <f t="shared" si="29"/>
         <v>7</v>
       </c>
-      <c r="F101" s="14">
+      <c r="F101" s="7">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C102" s="7">
+      <c r="C102" s="4">
         <f t="shared" si="27"/>
         <v>43164</v>
       </c>
-      <c r="D102" s="14" t="str">
+      <c r="D102" s="7" t="str">
         <f t="shared" si="28"/>
         <v>Create giveitemtoplayer()</v>
       </c>
@@ -7467,17 +7596,17 @@
         <f t="shared" si="29"/>
         <v>7</v>
       </c>
-      <c r="F102" s="14">
+      <c r="F102" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C103" s="7">
+      <c r="C103" s="4">
         <f t="shared" si="27"/>
         <v>43178</v>
       </c>
-      <c r="D103" s="14" t="str">
+      <c r="D103" s="7" t="str">
         <f t="shared" si="28"/>
         <v>Create enemydropitem()</v>
       </c>
@@ -7485,17 +7614,17 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F103" s="14">
+      <c r="F103" s="7">
         <f t="shared" si="30"/>
         <v>14</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C104" s="7">
+      <c r="C104" s="4">
         <f t="shared" si="27"/>
         <v>43192</v>
       </c>
-      <c r="D104" s="14" t="str">
+      <c r="D104" s="7" t="str">
         <f t="shared" si="28"/>
         <v>Create chestdropitem()</v>
       </c>
@@ -7503,17 +7632,17 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F104" s="14">
+      <c r="F104" s="7">
         <f t="shared" si="30"/>
         <v>14</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C105" s="7">
+      <c r="C105" s="4">
         <f t="shared" si="27"/>
         <v>43206</v>
       </c>
-      <c r="D105" s="14" t="str">
+      <c r="D105" s="7" t="str">
         <f t="shared" si="28"/>
         <v>Testing</v>
       </c>
@@ -7521,17 +7650,17 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F105" s="14">
+      <c r="F105" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C106" s="7">
+      <c r="C106" s="4">
         <f t="shared" si="27"/>
         <v>43213</v>
       </c>
-      <c r="D106" s="14" t="str">
+      <c r="D106" s="7" t="str">
         <f t="shared" si="28"/>
         <v>Create all necessary items</v>
       </c>
@@ -7539,20 +7668,20 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F106" s="14">
+      <c r="F106" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C107" s="7">
+      <c r="C107" s="4">
         <f>I11</f>
         <v>43115</v>
       </c>
-      <c r="D107" s="14" t="str">
+      <c r="D107" s="7" t="str">
         <f>I2</f>
         <v>Documentation/SA demo</v>
       </c>
@@ -7560,17 +7689,17 @@
         <f>I29</f>
         <v>28</v>
       </c>
-      <c r="F107" s="14">
+      <c r="F107" s="7">
         <f>I38</f>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C108" s="7">
+      <c r="C108" s="4">
         <f t="shared" ref="C108:C114" si="31">I12</f>
         <v>43143</v>
       </c>
-      <c r="D108" s="14" t="str">
+      <c r="D108" s="7" t="str">
         <f t="shared" ref="D108:D114" si="32">I3</f>
         <v>Overall Design Idea</v>
       </c>
@@ -7578,17 +7707,17 @@
         <f t="shared" ref="E108:E114" si="33">I30</f>
         <v>7</v>
       </c>
-      <c r="F108" s="14">
+      <c r="F108" s="7">
         <f t="shared" ref="F108:F114" si="34">I39</f>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C109" s="7">
+      <c r="C109" s="4">
         <f t="shared" si="31"/>
         <v>43150</v>
       </c>
-      <c r="D109" s="14" t="str">
+      <c r="D109" s="7" t="str">
         <f t="shared" si="32"/>
         <v>Program Working Sample</v>
       </c>
@@ -7596,17 +7725,17 @@
         <f t="shared" si="33"/>
         <v>14</v>
       </c>
-      <c r="F109" s="14">
+      <c r="F109" s="7">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C110" s="7">
+      <c r="C110" s="4">
         <f t="shared" si="31"/>
         <v>43164</v>
       </c>
-      <c r="D110" s="14" t="str">
+      <c r="D110" s="7" t="str">
         <f t="shared" si="32"/>
         <v>Implement w/ Team’s Code</v>
       </c>
@@ -7614,17 +7743,17 @@
         <f t="shared" si="33"/>
         <v>14</v>
       </c>
-      <c r="F110" s="14">
+      <c r="F110" s="7">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C111" s="7">
+      <c r="C111" s="4">
         <f t="shared" si="31"/>
         <v>43178</v>
       </c>
-      <c r="D111" s="14" t="str">
+      <c r="D111" s="7" t="str">
         <f t="shared" si="32"/>
         <v>All Menus Functioning</v>
       </c>
@@ -7632,17 +7761,17 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="F111" s="14">
+      <c r="F111" s="7">
         <f t="shared" si="34"/>
         <v>7</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C112" s="7">
+      <c r="C112" s="4">
         <f t="shared" si="31"/>
         <v>43185</v>
       </c>
-      <c r="D112" s="14" t="str">
+      <c r="D112" s="7" t="str">
         <f t="shared" si="32"/>
         <v>Allow for Settings Changes</v>
       </c>
@@ -7650,17 +7779,17 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="F112" s="14">
+      <c r="F112" s="7">
         <f t="shared" si="34"/>
         <v>7</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C113" s="7">
+      <c r="C113" s="4">
         <f t="shared" si="31"/>
         <v>43192</v>
       </c>
-      <c r="D113" s="14" t="str">
+      <c r="D113" s="7" t="str">
         <f t="shared" si="32"/>
         <v>Implement Final Aesthetic Designs</v>
       </c>
@@ -7668,17 +7797,17 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="F113" s="14">
+      <c r="F113" s="7">
         <f t="shared" si="34"/>
         <v>14</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C114" s="7">
+      <c r="C114" s="4">
         <f t="shared" si="31"/>
         <v>43206</v>
       </c>
-      <c r="D114" s="14" t="str">
+      <c r="D114" s="7" t="str">
         <f t="shared" si="32"/>
         <v>Testing</v>
       </c>
@@ -7686,20 +7815,20 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="F114" s="14">
+      <c r="F114" s="7">
         <f t="shared" si="34"/>
         <v>14</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C115" s="7">
+      <c r="C115" s="4">
         <f>J11</f>
         <v>43115</v>
       </c>
-      <c r="D115" s="14" t="str">
+      <c r="D115" s="7" t="str">
         <f>J2</f>
         <v>Documentation/SA demo</v>
       </c>
@@ -7707,17 +7836,17 @@
         <f>J29</f>
         <v>28</v>
       </c>
-      <c r="F115" s="14">
+      <c r="F115" s="7">
         <f>J38</f>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C116" s="7">
+      <c r="C116" s="4">
         <f t="shared" ref="C116:C123" si="35">J12</f>
         <v>43143</v>
       </c>
-      <c r="D116" s="14" t="str">
+      <c r="D116" s="7" t="str">
         <f t="shared" ref="D116:D123" si="36">J3</f>
         <v>Outline Manager and Functions</v>
       </c>
@@ -7725,17 +7854,17 @@
         <f t="shared" ref="E116:E123" si="37">J30</f>
         <v>7</v>
       </c>
-      <c r="F116" s="14">
+      <c r="F116" s="7">
         <f t="shared" ref="F116:F123" si="38">J39</f>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C117" s="7">
+      <c r="C117" s="4">
         <f t="shared" si="35"/>
         <v>43150</v>
       </c>
-      <c r="D117" s="14" t="str">
+      <c r="D117" s="7" t="str">
         <f t="shared" si="36"/>
         <v>Build Sound Library</v>
       </c>
@@ -7743,17 +7872,17 @@
         <f t="shared" si="37"/>
         <v>21</v>
       </c>
-      <c r="F117" s="14">
+      <c r="F117" s="7">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C118" s="7">
+      <c r="C118" s="4">
         <f t="shared" si="35"/>
         <v>43171</v>
       </c>
-      <c r="D118" s="14" t="str">
+      <c r="D118" s="7" t="str">
         <f t="shared" si="36"/>
         <v>Working Functions for all possible audio requests</v>
       </c>
@@ -7761,17 +7890,17 @@
         <f t="shared" si="37"/>
         <v>7</v>
       </c>
-      <c r="F118" s="14">
+      <c r="F118" s="7">
         <f t="shared" si="38"/>
         <v>7</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C119" s="7">
+      <c r="C119" s="4">
         <f t="shared" si="35"/>
         <v>43185</v>
       </c>
-      <c r="D119" s="14" t="str">
+      <c r="D119" s="7" t="str">
         <f t="shared" si="36"/>
         <v>Testing/Debugging</v>
       </c>
@@ -7779,17 +7908,17 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F119" s="14">
+      <c r="F119" s="7">
         <f t="shared" si="38"/>
         <v>7</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C120" s="7">
+      <c r="C120" s="4">
         <f t="shared" si="35"/>
         <v>43192</v>
       </c>
-      <c r="D120" s="14" t="str">
+      <c r="D120" s="7" t="str">
         <f t="shared" si="36"/>
         <v>Algorithm for dynamic pitch of sounds</v>
       </c>
@@ -7797,17 +7926,17 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F120" s="14">
+      <c r="F120" s="7">
         <f t="shared" si="38"/>
         <v>14</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C121" s="7">
+      <c r="C121" s="4">
         <f t="shared" si="35"/>
         <v>43206</v>
       </c>
-      <c r="D121" s="14" t="str">
+      <c r="D121" s="7" t="str">
         <f t="shared" si="36"/>
         <v>Modify sounds/music for optimal load times</v>
       </c>
@@ -7815,17 +7944,17 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F121" s="14">
+      <c r="F121" s="7">
         <f t="shared" si="38"/>
         <v>14</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C122" s="7">
+      <c r="C122" s="4">
         <f t="shared" si="35"/>
         <v>43220</v>
       </c>
-      <c r="D122" s="14" t="str">
+      <c r="D122" s="7" t="str">
         <f t="shared" si="36"/>
         <v>Testing/Debugging</v>
       </c>
@@ -7833,17 +7962,17 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F122" s="14">
+      <c r="F122" s="7">
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C123" s="7">
+      <c r="C123" s="4">
         <f t="shared" si="35"/>
         <v>43223</v>
       </c>
-      <c r="D123" s="14" t="str">
+      <c r="D123" s="7" t="str">
         <f t="shared" si="36"/>
         <v>Presentation</v>
       </c>
@@ -7851,7 +7980,7 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F123" s="14">
+      <c r="F123" s="7">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
@@ -7865,6 +7994,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7886,18 +8016,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B2">
@@ -7905,7 +8035,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="12" t="s">
         <v>56</v>
       </c>
       <c r="B3">
@@ -7913,7 +8043,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B4">
@@ -7921,7 +8051,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B5">
@@ -7929,7 +8059,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B6">
@@ -7937,7 +8067,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B7">
@@ -7945,7 +8075,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B8">
@@ -7953,7 +8083,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B9">
@@ -7961,7 +8091,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B10">
@@ -7969,14 +8099,14 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="52"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="15" t="s">
         <v>72</v>
       </c>
       <c r="B12">
@@ -7984,7 +8114,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="16" t="s">
         <v>64</v>
       </c>
       <c r="B13">
@@ -7992,7 +8122,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B14">
@@ -8000,7 +8130,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B15">
@@ -8008,7 +8138,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="16" t="s">
         <v>67</v>
       </c>
       <c r="B16">
@@ -8016,7 +8146,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="16" t="s">
         <v>68</v>
       </c>
       <c r="B17">
@@ -8024,7 +8154,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="16" t="s">
         <v>69</v>
       </c>
       <c r="B18">
@@ -8032,7 +8162,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="16" t="s">
         <v>70</v>
       </c>
       <c r="B19">
@@ -8040,7 +8170,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="17" t="s">
         <v>71</v>
       </c>
       <c r="B20">
@@ -8048,14 +8178,14 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B22">
@@ -8063,7 +8193,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="12" t="s">
         <v>108</v>
       </c>
       <c r="B23">
@@ -8071,7 +8201,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="12" t="s">
         <v>109</v>
       </c>
       <c r="B24">
@@ -8079,7 +8209,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="12" t="s">
         <v>110</v>
       </c>
       <c r="B25">
@@ -8087,7 +8217,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="12" t="s">
         <v>111</v>
       </c>
       <c r="B26">
@@ -8095,7 +8225,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="12" t="s">
         <v>112</v>
       </c>
       <c r="B27">
@@ -8103,7 +8233,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="12" t="s">
         <v>113</v>
       </c>
       <c r="B28">
@@ -8111,7 +8241,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B29">
@@ -8119,7 +8249,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="13" t="s">
         <v>79</v>
       </c>
       <c r="B30">
@@ -8127,14 +8257,14 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="52"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="15" t="s">
         <v>72</v>
       </c>
       <c r="B32">
@@ -8142,7 +8272,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="16" t="s">
         <v>101</v>
       </c>
       <c r="B33">
@@ -8150,7 +8280,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="16" t="s">
         <v>102</v>
       </c>
       <c r="B34">
@@ -8158,7 +8288,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="16" t="s">
         <v>103</v>
       </c>
       <c r="B35">
@@ -8166,7 +8296,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="16" t="s">
         <v>104</v>
       </c>
       <c r="B36">
@@ -8174,7 +8304,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="16" t="s">
         <v>105</v>
       </c>
       <c r="B37">
@@ -8182,7 +8312,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B38">
@@ -8190,7 +8320,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="16" t="s">
         <v>70</v>
       </c>
       <c r="B39">
@@ -8198,7 +8328,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="50" t="s">
+      <c r="A40" s="17" t="s">
         <v>107</v>
       </c>
       <c r="B40">
@@ -8206,17 +8336,17 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="51"/>
-      <c r="C41" s="52"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="55">
+      <c r="B42" s="21">
         <v>13.5</v>
       </c>
       <c r="C42">
@@ -8224,7 +8354,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="12" t="s">
         <v>114</v>
       </c>
       <c r="B43">
@@ -8232,7 +8362,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="12" t="s">
         <v>115</v>
       </c>
       <c r="B44">
@@ -8240,7 +8370,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="12" t="s">
         <v>116</v>
       </c>
       <c r="B45">
@@ -8248,7 +8378,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="12" t="s">
         <v>117</v>
       </c>
       <c r="B46">
@@ -8256,7 +8386,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="12" t="s">
         <v>118</v>
       </c>
       <c r="B47">
@@ -8264,7 +8394,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="12" t="s">
         <v>119</v>
       </c>
       <c r="B48">
@@ -8272,7 +8402,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="12" t="s">
         <v>120</v>
       </c>
       <c r="B49">
@@ -8280,7 +8410,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="46" t="s">
+      <c r="A50" s="13" t="s">
         <v>79</v>
       </c>
       <c r="B50">
@@ -8288,14 +8418,14 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="52"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="48" t="s">
+      <c r="A52" s="15" t="s">
         <v>72</v>
       </c>
       <c r="B52">
@@ -8303,7 +8433,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="49" t="s">
+      <c r="A53" s="16" t="s">
         <v>94</v>
       </c>
       <c r="B53">
@@ -8311,7 +8441,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="49" t="s">
+      <c r="A54" s="16" t="s">
         <v>95</v>
       </c>
       <c r="B54">
@@ -8319,7 +8449,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="49" t="s">
+      <c r="A55" s="16" t="s">
         <v>96</v>
       </c>
       <c r="B55">
@@ -8327,7 +8457,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="49" t="s">
+      <c r="A56" s="16" t="s">
         <v>97</v>
       </c>
       <c r="B56">
@@ -8335,7 +8465,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="49" t="s">
+      <c r="A57" s="16" t="s">
         <v>98</v>
       </c>
       <c r="B57">
@@ -8343,7 +8473,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="49" t="s">
+      <c r="A58" s="16" t="s">
         <v>99</v>
       </c>
       <c r="B58">
@@ -8351,7 +8481,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="49" t="s">
+      <c r="A59" s="16" t="s">
         <v>100</v>
       </c>
       <c r="B59">
@@ -8359,7 +8489,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="50" t="s">
+      <c r="A60" s="17" t="s">
         <v>79</v>
       </c>
       <c r="B60">
@@ -8367,14 +8497,14 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="47" t="s">
+      <c r="A61" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="51"/>
-      <c r="C61" s="52"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="19"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="44" t="s">
+      <c r="A62" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B62">
@@ -8385,7 +8515,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="45" t="s">
+      <c r="A63" s="12" t="s">
         <v>87</v>
       </c>
       <c r="B63">
@@ -8396,7 +8526,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="45" t="s">
+      <c r="A64" s="12" t="s">
         <v>88</v>
       </c>
       <c r="B64">
@@ -8407,7 +8537,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="45" t="s">
+      <c r="A65" s="12" t="s">
         <v>89</v>
       </c>
       <c r="B65">
@@ -8418,7 +8548,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="45" t="s">
+      <c r="A66" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B66">
@@ -8429,7 +8559,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="45" t="s">
+      <c r="A67" s="12" t="s">
         <v>91</v>
       </c>
       <c r="B67">
@@ -8440,7 +8570,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="45" t="s">
+      <c r="A68" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B68">
@@ -8451,7 +8581,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="45" t="s">
+      <c r="A69" s="12" t="s">
         <v>92</v>
       </c>
       <c r="B69">
@@ -8462,7 +8592,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="46" t="s">
+      <c r="A70" s="13" t="s">
         <v>93</v>
       </c>
       <c r="B70">
@@ -8473,14 +8603,14 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="51"/>
-      <c r="C71" s="52"/>
+      <c r="A71" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="48" t="s">
+      <c r="A72" s="15" t="s">
         <v>72</v>
       </c>
       <c r="B72">
@@ -8488,7 +8618,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="49" t="s">
+      <c r="A73" s="16" t="s">
         <v>80</v>
       </c>
       <c r="B73">
@@ -8496,7 +8626,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="49" t="s">
+      <c r="A74" s="16" t="s">
         <v>81</v>
       </c>
       <c r="B74">
@@ -8504,7 +8634,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="49" t="s">
+      <c r="A75" s="16" t="s">
         <v>82</v>
       </c>
       <c r="B75">
@@ -8512,7 +8642,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="49" t="s">
+      <c r="A76" s="16" t="s">
         <v>83</v>
       </c>
       <c r="B76">
@@ -8520,7 +8650,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="49" t="s">
+      <c r="A77" s="16" t="s">
         <v>84</v>
       </c>
       <c r="B77">
@@ -8528,7 +8658,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="49" t="s">
+      <c r="A78" s="16" t="s">
         <v>85</v>
       </c>
       <c r="B78">
@@ -8536,7 +8666,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="49" t="s">
+      <c r="A79" s="16" t="s">
         <v>70</v>
       </c>
       <c r="B79">
@@ -8544,7 +8674,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="50" t="s">
+      <c r="A80" s="17" t="s">
         <v>86</v>
       </c>
       <c r="B80">
@@ -8552,14 +8682,14 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="47" t="s">
+      <c r="A81" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B81" s="51"/>
-      <c r="C81" s="52"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="19"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="44" t="s">
+      <c r="A82" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B82">
@@ -8567,7 +8697,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="45" t="s">
+      <c r="A83" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B83">
@@ -8575,7 +8705,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="45" t="s">
+      <c r="A84" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B84">
@@ -8583,7 +8713,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="45" t="s">
+      <c r="A85" s="12" t="s">
         <v>75</v>
       </c>
       <c r="B85">
@@ -8591,7 +8721,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="45" t="s">
+      <c r="A86" s="12" t="s">
         <v>76</v>
       </c>
       <c r="B86">
@@ -8599,7 +8729,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="45" t="s">
+      <c r="A87" s="12" t="s">
         <v>77</v>
       </c>
       <c r="B87">
@@ -8607,7 +8737,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="45" t="s">
+      <c r="A88" s="12" t="s">
         <v>78</v>
       </c>
       <c r="B88">
@@ -8615,7 +8745,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="45" t="s">
+      <c r="A89" s="12" t="s">
         <v>76</v>
       </c>
       <c r="B89">
@@ -8623,7 +8753,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="46" t="s">
+      <c r="A90" s="13" t="s">
         <v>79</v>
       </c>
       <c r="B90">
@@ -8631,16 +8761,16 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="53" t="s">
+      <c r="B91" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C91" s="53" t="s">
+      <c r="C91" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="D91" s="53" t="s">
+      <c r="D91" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="E91" s="53" t="s">
+      <c r="E91" s="20" t="s">
         <v>124</v>
       </c>
     </row>
@@ -8653,11 +8783,11 @@
         <f>SUM(C2:C90)</f>
         <v>49.5</v>
       </c>
-      <c r="D92" s="41">
+      <c r="D92" s="8">
         <f>B92*100</f>
         <v>43550</v>
       </c>
-      <c r="E92" s="41">
+      <c r="E92" s="8">
         <f>C92*100</f>
         <v>4950</v>
       </c>

--- a/doc/Master_Gantt.xlsx
+++ b/doc/Master_Gantt.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\travi\Desktop\Team-Faucet\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke Hill\Documents\GitHub\Team-Faucet\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD89C239-E868-4CF6-B624-AB3940CBB3E5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{24327E33-5E17-41B8-A917-F1E518100254}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="1" r:id="rId1"/>
@@ -29,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Travis Rousey</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{C385386C-B8E9-4EFA-A685-26BE3A2D6F61}">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -476,7 +475,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -4610,11 +4609,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33873E7D-5C5F-4C76-AC1C-D81FEE5D415F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7987,7 +7986,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1" xr:uid="{7B565046-8104-402B-AE5E-61CA7E420F59}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1">
       <formula1>personList</formula1>
     </dataValidation>
   </dataValidations>
@@ -7999,11 +7998,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E405C95B-F562-491A-BE4E-D61A355ABBB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8360,6 +8359,9 @@
       <c r="B43">
         <v>10</v>
       </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
@@ -8368,6 +8370,9 @@
       <c r="B44">
         <v>7</v>
       </c>
+      <c r="C44">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
@@ -8376,6 +8381,9 @@
       <c r="B45">
         <v>7</v>
       </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
@@ -8383,6 +8391,9 @@
       </c>
       <c r="B46">
         <v>7</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -8781,7 +8792,7 @@
       </c>
       <c r="C92">
         <f>SUM(C2:C90)</f>
-        <v>49.5</v>
+        <v>68</v>
       </c>
       <c r="D92" s="8">
         <f>B92*100</f>
@@ -8789,7 +8800,7 @@
       </c>
       <c r="E92" s="8">
         <f>C92*100</f>
-        <v>4950</v>
+        <v>6800</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Master_Gantt.xlsx
+++ b/doc/Master_Gantt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke Hill\Documents\GitHub\Team-Faucet\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\travi\Desktop\Team-Faucet\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EE6BD6-AF02-4722-B2EE-C03D7FF99B7B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="personList">Gantt!$B$1:$J$1</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,12 +29,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Travis Rousey</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="137">
   <si>
     <t>Persons</t>
   </si>
@@ -331,15 +332,6 @@
     <t>Create test Items</t>
   </si>
   <si>
-    <t>Create giveitemtoplayer()</t>
-  </si>
-  <si>
-    <t>Create enemydropitem()</t>
-  </si>
-  <si>
-    <t>Create chestdropitem()</t>
-  </si>
-  <si>
     <t>Create all necessary items</t>
   </si>
   <si>
@@ -470,12 +462,24 @@
   </si>
   <si>
     <t>Zane</t>
+  </si>
+  <si>
+    <t>Make items stack/swap</t>
+  </si>
+  <si>
+    <t>Integrate Inventory into the main game</t>
+  </si>
+  <si>
+    <t>Make item objects in game move to inventory</t>
+  </si>
+  <si>
+    <t>Integrate Inventory into the main game (4/12/2018)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -941,7 +945,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Zane G.</c:v>
+              <c:v>Travis R.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -991,7 +995,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Zane G.</c:v>
+                  <c:v>Travis R.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1017,28 +1021,28 @@
                   <c:v>Documentation/SA demo</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Outline Manager and Functions</c:v>
+                  <c:v>Create Inventory</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Build Sound Library</c:v>
+                  <c:v>Create test Items</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Working Functions for all possible audio requests</c:v>
+                  <c:v>Make items stack/swap</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Testing/Debugging</c:v>
+                  <c:v>Integrate Inventory into the main game</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Algorithm for dynamic pitch of sounds</c:v>
+                  <c:v>Make item objects in game move to inventory</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Modify sounds/music for optimal load times</c:v>
+                  <c:v>Testing</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Testing/Debugging</c:v>
+                  <c:v>Create all necessary items</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Presentation</c:v>
+                  <c:v>Final Testing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1056,13 +1060,13 @@
                   <c:v>43143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43150</c:v>
+                  <c:v>43157</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43171</c:v>
+                  <c:v>43164</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43185</c:v>
+                  <c:v>43178</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>43192</c:v>
@@ -1071,10 +1075,10 @@
                   <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>43213</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>43220</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1118,28 +1122,28 @@
                   <c:v>Documentation/SA demo</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Outline Manager and Functions</c:v>
+                  <c:v>Create Inventory</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Build Sound Library</c:v>
+                  <c:v>Create test Items</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Working Functions for all possible audio requests</c:v>
+                  <c:v>Make items stack/swap</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Testing/Debugging</c:v>
+                  <c:v>Integrate Inventory into the main game</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Algorithm for dynamic pitch of sounds</c:v>
+                  <c:v>Make item objects in game move to inventory</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Modify sounds/music for optimal load times</c:v>
+                  <c:v>Testing</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Testing/Debugging</c:v>
+                  <c:v>Create all necessary items</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Presentation</c:v>
+                  <c:v>Final Testing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1154,16 +1158,16 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1219,28 +1223,28 @@
                   <c:v>Documentation/SA demo</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Outline Manager and Functions</c:v>
+                  <c:v>Create Inventory</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Build Sound Library</c:v>
+                  <c:v>Create test Items</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Working Functions for all possible audio requests</c:v>
+                  <c:v>Make items stack/swap</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Testing/Debugging</c:v>
+                  <c:v>Integrate Inventory into the main game</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Algorithm for dynamic pitch of sounds</c:v>
+                  <c:v>Make item objects in game move to inventory</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Modify sounds/music for optimal load times</c:v>
+                  <c:v>Testing</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Testing/Debugging</c:v>
+                  <c:v>Create all necessary items</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Presentation</c:v>
+                  <c:v>Final Testing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1261,22 +1265,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1669,13 +1673,13 @@
                   <c:v>Create test Items</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>Create giveitemtoplayer()</c:v>
+                  <c:v>Make items stack/swap</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>Create enemydropitem()</c:v>
+                  <c:v>Integrate Inventory into the main game</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>Create chestdropitem()</c:v>
+                  <c:v>Make item objects in game move to inventory</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>Testing</c:v>
@@ -2164,13 +2168,13 @@
                   <c:v>Create test Items</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>Create giveitemtoplayer()</c:v>
+                  <c:v>Make items stack/swap</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>Create enemydropitem()</c:v>
+                  <c:v>Integrate Inventory into the main game</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>Create chestdropitem()</c:v>
+                  <c:v>Make item objects in game move to inventory</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>Testing</c:v>
@@ -2401,10 +2405,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0</c:v>
@@ -2659,13 +2663,13 @@
                   <c:v>Create test Items</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>Create giveitemtoplayer()</c:v>
+                  <c:v>Make items stack/swap</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>Create enemydropitem()</c:v>
+                  <c:v>Integrate Inventory into the main game</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>Create chestdropitem()</c:v>
+                  <c:v>Make item objects in game move to inventory</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>Testing</c:v>
@@ -2896,10 +2900,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>14</c:v>
@@ -4609,11 +4613,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4667,7 +4671,7 @@
         <v>55</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -4720,16 +4724,16 @@
         <v>64</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H3" s="28" t="s">
         <v>87</v>
@@ -4745,7 +4749,7 @@
       </c>
       <c r="L3" s="5" t="str">
         <f>HLOOKUP($L$1,$B$1:$J$46,K3,FALSE)</f>
-        <v>Outline Manager and Functions</v>
+        <v>Create Inventory</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -4759,16 +4763,16 @@
         <v>65</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H4" s="28" t="s">
         <v>88</v>
@@ -4784,7 +4788,7 @@
       </c>
       <c r="L4" s="5" t="str">
         <f t="shared" ref="L4:L46" si="0">HLOOKUP($L$1,$B$1:$J$46,K4,FALSE)</f>
-        <v>Build Sound Library</v>
+        <v>Create test Items</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -4798,19 +4802,19 @@
         <v>66</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>82</v>
@@ -4823,7 +4827,7 @@
       </c>
       <c r="L5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Working Functions for all possible audio requests</v>
+        <v>Make items stack/swap</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -4837,19 +4841,19 @@
         <v>67</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>83</v>
@@ -4862,7 +4866,7 @@
       </c>
       <c r="L6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Testing/Debugging</v>
+        <v>Integrate Inventory into the main game</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -4876,19 +4880,19 @@
         <v>68</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>84</v>
@@ -4901,7 +4905,7 @@
       </c>
       <c r="L7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Algorithm for dynamic pitch of sounds</v>
+        <v>Make item objects in game move to inventory</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -4915,16 +4919,16 @@
         <v>69</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H8" s="28" t="s">
         <v>70</v>
@@ -4940,7 +4944,7 @@
       </c>
       <c r="L8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Modify sounds/music for optimal load times</v>
+        <v>Testing</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -4960,13 +4964,13 @@
         <v>70</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>70</v>
@@ -4979,7 +4983,7 @@
       </c>
       <c r="L9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Testing/Debugging</v>
+        <v>Create all necessary items</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4996,7 +5000,7 @@
         <v>79</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F10" s="37" t="s">
         <v>79</v>
@@ -5005,7 +5009,7 @@
         <v>79</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I10" s="37" t="s">
         <v>86</v>
@@ -5018,7 +5022,7 @@
       </c>
       <c r="L10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Presentation</v>
+        <v>Final Testing</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -5135,7 +5139,7 @@
       </c>
       <c r="L13" s="6">
         <f t="shared" si="0"/>
-        <v>43150</v>
+        <v>43157</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -5174,7 +5178,7 @@
       </c>
       <c r="L14" s="6">
         <f t="shared" si="0"/>
-        <v>43171</v>
+        <v>43164</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -5213,7 +5217,7 @@
       </c>
       <c r="L15" s="6">
         <f t="shared" si="0"/>
-        <v>43185</v>
+        <v>43178</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -5330,7 +5334,7 @@
       </c>
       <c r="L18" s="6">
         <f t="shared" si="0"/>
-        <v>43220</v>
+        <v>43213</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5369,7 +5373,7 @@
       </c>
       <c r="L19" s="6">
         <f t="shared" si="0"/>
-        <v>43223</v>
+        <v>43220</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -5447,7 +5451,7 @@
       </c>
       <c r="L21" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -5486,7 +5490,7 @@
       </c>
       <c r="L22" s="5">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -5528,7 +5532,7 @@
         <v>14</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -5567,7 +5571,7 @@
       </c>
       <c r="L24" s="22">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M24" s="24"/>
     </row>
@@ -5647,7 +5651,7 @@
       </c>
       <c r="L26" s="22">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M26" s="25"/>
     </row>
@@ -5687,7 +5691,7 @@
       </c>
       <c r="L27" s="22">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M27" s="25"/>
     </row>
@@ -5727,7 +5731,7 @@
       </c>
       <c r="L28" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28" s="25"/>
     </row>
@@ -5807,7 +5811,7 @@
       </c>
       <c r="L30" s="22">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M30" s="25"/>
     </row>
@@ -5847,10 +5851,10 @@
       </c>
       <c r="L31" s="22">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="M31" s="23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -5876,7 +5880,7 @@
         <v>14</v>
       </c>
       <c r="H32" s="30">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I32" s="30">
         <v>14</v>
@@ -5889,7 +5893,7 @@
       </c>
       <c r="L32" s="22">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M32" s="25"/>
     </row>
@@ -5916,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="30">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I33" s="30">
         <v>0</v>
@@ -5929,7 +5933,7 @@
       </c>
       <c r="L33" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M33" s="25"/>
     </row>
@@ -6141,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="23" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -6272,7 +6276,7 @@
       </c>
       <c r="H41" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I41" s="28">
         <f t="shared" si="2"/>
@@ -6287,7 +6291,7 @@
       </c>
       <c r="L41" s="22">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M41" s="25"/>
     </row>
@@ -6321,7 +6325,7 @@
       </c>
       <c r="H42" s="28">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I42" s="28">
         <f t="shared" si="2"/>
@@ -6336,7 +6340,7 @@
       </c>
       <c r="L42" s="22">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M42" s="25"/>
     </row>
@@ -6434,7 +6438,7 @@
       </c>
       <c r="L44" s="22">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M44" s="25"/>
     </row>
@@ -6483,7 +6487,7 @@
       </c>
       <c r="L45" s="22">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M45" s="26"/>
     </row>
@@ -6532,10 +6536,10 @@
       </c>
       <c r="L46" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M46" s="25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -6544,7 +6548,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C48" s="27">
         <f>B11</f>
@@ -6639,7 +6643,7 @@
         <v>14</v>
       </c>
       <c r="M52" s="25" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
@@ -6720,7 +6724,7 @@
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C57" s="3">
         <f>C11</f>
@@ -6758,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
@@ -6893,12 +6897,12 @@
         <v>3</v>
       </c>
       <c r="M65" s="25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C66" s="4">
         <f>D11</f>
@@ -7012,7 +7016,7 @@
         <v>14</v>
       </c>
       <c r="M71" s="25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
@@ -7074,7 +7078,7 @@
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C75" s="4">
         <f>E11</f>
@@ -7131,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="M77" s="25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
@@ -7231,7 +7235,7 @@
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C83" s="4">
         <f>F11</f>
@@ -7380,7 +7384,7 @@
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C91" s="4">
         <f>G11</f>
@@ -7527,7 +7531,7 @@
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C99" s="4">
         <f>H11</f>
@@ -7589,15 +7593,15 @@
       </c>
       <c r="D102" s="7" t="str">
         <f t="shared" si="28"/>
-        <v>Create giveitemtoplayer()</v>
+        <v>Make items stack/swap</v>
       </c>
       <c r="E102">
         <f t="shared" si="29"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F102" s="7">
         <f t="shared" si="30"/>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
@@ -7607,15 +7611,15 @@
       </c>
       <c r="D103" s="7" t="str">
         <f t="shared" si="28"/>
-        <v>Create enemydropitem()</v>
+        <v>Integrate Inventory into the main game</v>
       </c>
       <c r="E103">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F103" s="7">
         <f t="shared" si="30"/>
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
@@ -7625,7 +7629,7 @@
       </c>
       <c r="D104" s="7" t="str">
         <f t="shared" si="28"/>
-        <v>Create chestdropitem()</v>
+        <v>Make item objects in game move to inventory</v>
       </c>
       <c r="E104">
         <f t="shared" si="29"/>
@@ -7674,7 +7678,7 @@
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C107" s="4">
         <f>I11</f>
@@ -7821,7 +7825,7 @@
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C115" s="4">
         <f>J11</f>
@@ -7986,7 +7990,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>personList</formula1>
     </dataValidation>
   </dataValidations>
@@ -7998,11 +8002,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8019,10 +8023,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -8193,7 +8197,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -8201,7 +8205,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -8209,7 +8213,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -8217,7 +8221,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -8225,7 +8229,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -8233,7 +8237,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -8272,7 +8276,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -8280,7 +8284,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -8288,7 +8292,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -8296,7 +8300,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -8304,7 +8308,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -8312,7 +8316,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -8328,7 +8332,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -8354,7 +8358,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B43">
         <v>10</v>
@@ -8365,7 +8369,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B44">
         <v>7</v>
@@ -8376,7 +8380,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B45">
         <v>7</v>
@@ -8387,7 +8391,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -8398,7 +8402,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B47">
         <v>5</v>
@@ -8406,7 +8410,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B48">
         <v>6</v>
@@ -8414,7 +8418,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B49">
         <v>5</v>
@@ -8445,7 +8449,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -8453,7 +8457,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B54">
         <v>5</v>
@@ -8461,7 +8465,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -8469,7 +8473,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -8477,7 +8481,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -8485,7 +8489,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -8493,7 +8497,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -8549,29 +8553,29 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="B65">
         <v>5</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="B66">
         <v>5</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -8593,7 +8597,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -8604,7 +8608,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -8773,16 +8777,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B91" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E91" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -8792,7 +8796,7 @@
       </c>
       <c r="C92">
         <f>SUM(C2:C90)</f>
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D92" s="8">
         <f>B92*100</f>
@@ -8800,7 +8804,7 @@
       </c>
       <c r="E92" s="8">
         <f>C92*100</f>
-        <v>6800</v>
+        <v>8700</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Master_Gantt.xlsx
+++ b/doc/Master_Gantt.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28702"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\travi\Desktop\Team-Faucet\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrettoetken/Documents/GitHub/Team-Faucet/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EE6BD6-AF02-4722-B2EE-C03D7FF99B7B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18420" yWindow="6500" windowWidth="27120" windowHeight="18620"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="1" r:id="rId1"/>
@@ -19,9 +18,15 @@
   <definedNames>
     <definedName name="personList">Gantt!$B$1:$J$1</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,12 +34,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Travis Rousey</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -479,7 +484,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -583,26 +588,26 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -611,14 +616,14 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -627,12 +632,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,29 +646,29 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -671,27 +676,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,10 +704,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,121 +726,121 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,7 +930,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -950,6 +955,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1054,36 +1060,36 @@
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>43115</c:v>
+                  <c:v>43115.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43143</c:v>
+                  <c:v>43143.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43157</c:v>
+                  <c:v>43157.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43164</c:v>
+                  <c:v>43164.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43178</c:v>
+                  <c:v>43178.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43192</c:v>
+                  <c:v>43192.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43206</c:v>
+                  <c:v>43206.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43213</c:v>
+                  <c:v>43213.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43220</c:v>
+                  <c:v>43220.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AC47-4BDA-A3B4-88EDFA6D349E}"/>
             </c:ext>
@@ -1155,36 +1161,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-AC47-4BDA-A3B4-88EDFA6D349E}"/>
             </c:ext>
@@ -1256,36 +1262,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-AC47-4BDA-A3B4-88EDFA6D349E}"/>
             </c:ext>
@@ -1301,11 +1307,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="672486840"/>
-        <c:axId val="672491960"/>
+        <c:axId val="-2080608688"/>
+        <c:axId val="-2082871712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="672486840"/>
+        <c:axId val="-2080608688"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1348,7 +1354,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="672491960"/>
+        <c:crossAx val="-2082871712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1356,11 +1362,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="672491960"/>
+        <c:axId val="-2082871712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43227"/>
-          <c:min val="43115"/>
+          <c:max val="43227.0"/>
+          <c:min val="43115.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -1409,10 +1415,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="672486840"/>
+        <c:crossAx val="-2080608688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="7"/>
+        <c:majorUnit val="7.0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1424,14 +1430,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1467,7 +1473,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1748,237 +1754,237 @@
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="76"/>
                 <c:pt idx="0">
-                  <c:v>43115</c:v>
+                  <c:v>43115.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43143</c:v>
+                  <c:v>43143.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43150</c:v>
+                  <c:v>43150.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43164</c:v>
+                  <c:v>43164.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43185</c:v>
+                  <c:v>43185.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43199</c:v>
+                  <c:v>43199.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43206</c:v>
+                  <c:v>43206.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43213</c:v>
+                  <c:v>43213.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43220</c:v>
+                  <c:v>43220.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43115</c:v>
+                  <c:v>43115.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43143</c:v>
+                  <c:v>43143.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43150</c:v>
+                  <c:v>43150.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43171</c:v>
+                  <c:v>43171.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43192</c:v>
+                  <c:v>43192.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43199</c:v>
+                  <c:v>43199.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43206</c:v>
+                  <c:v>43206.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43213</c:v>
+                  <c:v>43213.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43220</c:v>
+                  <c:v>43220.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43115</c:v>
+                  <c:v>43115.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43143</c:v>
+                  <c:v>43143.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43157</c:v>
+                  <c:v>43157.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43171</c:v>
+                  <c:v>43171.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43185</c:v>
+                  <c:v>43185.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43199</c:v>
+                  <c:v>43199.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213</c:v>
+                  <c:v>43213.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43220</c:v>
+                  <c:v>43220.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43223</c:v>
+                  <c:v>43223.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43115</c:v>
+                  <c:v>43115.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43143</c:v>
+                  <c:v>43143.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43150</c:v>
+                  <c:v>43150.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43157</c:v>
+                  <c:v>43157.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43171</c:v>
+                  <c:v>43171.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43185</c:v>
+                  <c:v>43185.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43199</c:v>
+                  <c:v>43199.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43213</c:v>
+                  <c:v>43213.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43115</c:v>
+                  <c:v>43115.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43143</c:v>
+                  <c:v>43143.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43150</c:v>
+                  <c:v>43150.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43157</c:v>
+                  <c:v>43157.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43164</c:v>
+                  <c:v>43164.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43192</c:v>
+                  <c:v>43192.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43199</c:v>
+                  <c:v>43199.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43213</c:v>
+                  <c:v>43213.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43115</c:v>
+                  <c:v>43115.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43143</c:v>
+                  <c:v>43143.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43150</c:v>
+                  <c:v>43150.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43164</c:v>
+                  <c:v>43164.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43178</c:v>
+                  <c:v>43178.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43192</c:v>
+                  <c:v>43192.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>43206</c:v>
+                  <c:v>43206.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43220</c:v>
+                  <c:v>43220.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43115</c:v>
+                  <c:v>43115.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>43143</c:v>
+                  <c:v>43143.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>43157</c:v>
+                  <c:v>43157.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>43164</c:v>
+                  <c:v>43164.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>43178</c:v>
+                  <c:v>43178.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>43192</c:v>
+                  <c:v>43192.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>43206</c:v>
+                  <c:v>43206.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>43213</c:v>
+                  <c:v>43213.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>43115</c:v>
+                  <c:v>43115.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>43143</c:v>
+                  <c:v>43143.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>43150</c:v>
+                  <c:v>43150.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>43164</c:v>
+                  <c:v>43164.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>43178</c:v>
+                  <c:v>43178.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>43185</c:v>
+                  <c:v>43185.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>43192</c:v>
+                  <c:v>43192.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>43206</c:v>
+                  <c:v>43206.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>43115</c:v>
+                  <c:v>43115.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>43143</c:v>
+                  <c:v>43143.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>43150</c:v>
+                  <c:v>43150.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>43171</c:v>
+                  <c:v>43171.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>43185</c:v>
+                  <c:v>43185.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>43192</c:v>
+                  <c:v>43192.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>43206</c:v>
+                  <c:v>43206.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>43220</c:v>
+                  <c:v>43220.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>43223</c:v>
+                  <c:v>43223.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-B8AA-4D28-B8D6-EF0880E70ADF}"/>
             </c:ext>
@@ -2243,237 +2249,237 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="76"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>14</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-B8AA-4D28-B8D6-EF0880E70ADF}"/>
             </c:ext>
@@ -2738,237 +2744,237 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="76"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>14</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-B8AA-4D28-B8D6-EF0880E70ADF}"/>
             </c:ext>
@@ -2984,11 +2990,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="642435768"/>
-        <c:axId val="642437688"/>
+        <c:axId val="-2082836992"/>
+        <c:axId val="-2082833936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="642435768"/>
+        <c:axId val="-2082836992"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3031,7 +3037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642437688"/>
+        <c:crossAx val="-2082833936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3039,11 +3045,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="642437688"/>
+        <c:axId val="-2082833936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43227"/>
-          <c:min val="43115"/>
+          <c:max val="43227.0"/>
+          <c:min val="43115.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -3092,11 +3098,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642435768"/>
+        <c:crossAx val="-2082836992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="7"/>
-        <c:minorUnit val="4"/>
+        <c:majorUnit val="7.0"/>
+        <c:minorUnit val="4.0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3108,14 +3114,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4260,7 +4266,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF7332F-D308-4084-AEA4-FC56753264FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1BF7332F-D308-4084-AEA4-FC56753264FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4280,23 +4286,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>662669</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>1359</xdr:rowOff>
+      <xdr:rowOff>110216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>517071</xdr:colOff>
+      <xdr:colOff>498930</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB6E55A4-AD91-4226-BDEC-C7E2EC15826A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB6E55A4-AD91-4226-BDEC-C7E2EC15826A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4613,30 +4619,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4674,7 +4680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4713,7 +4719,7 @@
         <v>Documentation/SA demo</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -4752,7 +4758,7 @@
         <v>Create Inventory</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -4791,7 +4797,7 @@
         <v>Create test Items</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -4830,7 +4836,7 @@
         <v>Make items stack/swap</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -4869,7 +4875,7 @@
         <v>Integrate Inventory into the main game</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -4908,7 +4914,7 @@
         <v>Make item objects in game move to inventory</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -4947,7 +4953,7 @@
         <v>Testing</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -4986,7 +4992,7 @@
         <v>Create all necessary items</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -5025,7 +5031,7 @@
         <v>Final Testing</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -5064,7 +5070,7 @@
         <v>43115</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -5103,7 +5109,7 @@
         <v>43143</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -5142,7 +5148,7 @@
         <v>43157</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -5181,7 +5187,7 @@
         <v>43164</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -5220,7 +5226,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -5259,7 +5265,7 @@
         <v>43192</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -5298,7 +5304,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -5337,7 +5343,7 @@
         <v>43213</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -5376,7 +5382,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -5415,7 +5421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -5454,7 +5460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -5493,7 +5499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -5535,7 +5541,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -5575,7 +5581,7 @@
       </c>
       <c r="M24" s="24"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -5615,7 +5621,7 @@
       </c>
       <c r="M25" s="25"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -5655,7 +5661,7 @@
       </c>
       <c r="M26" s="25"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -5695,7 +5701,7 @@
       </c>
       <c r="M27" s="25"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -5735,7 +5741,7 @@
       </c>
       <c r="M28" s="25"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -5775,7 +5781,7 @@
       </c>
       <c r="M29" s="25"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -5815,7 +5821,7 @@
       </c>
       <c r="M30" s="25"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -5857,7 +5863,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -5897,7 +5903,7 @@
       </c>
       <c r="M32" s="25"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -5911,10 +5917,10 @@
         <v>0</v>
       </c>
       <c r="E33" s="30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F33" s="30">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G33" s="30">
         <v>0</v>
@@ -5937,7 +5943,7 @@
       </c>
       <c r="M33" s="25"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -5977,7 +5983,7 @@
       </c>
       <c r="M34" s="25"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -6017,7 +6023,7 @@
       </c>
       <c r="M35" s="25"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -6057,7 +6063,7 @@
       </c>
       <c r="M36" s="25"/>
     </row>
-    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -6097,7 +6103,7 @@
       </c>
       <c r="M37" s="25"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -6148,7 +6154,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -6197,7 +6203,7 @@
       </c>
       <c r="M39" s="25"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -6246,7 +6252,7 @@
       </c>
       <c r="M40" s="25"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -6295,7 +6301,7 @@
       </c>
       <c r="M41" s="25"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -6313,11 +6319,11 @@
       </c>
       <c r="E42" s="28">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F42" s="28">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G42" s="28">
         <f t="shared" si="2"/>
@@ -6344,7 +6350,7 @@
       </c>
       <c r="M42" s="25"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -6393,7 +6399,7 @@
       </c>
       <c r="M43" s="25"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -6442,7 +6448,7 @@
       </c>
       <c r="M44" s="25"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -6491,7 +6497,7 @@
       </c>
       <c r="M45" s="26"/>
     </row>
-    <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -6542,11 +6548,11 @@
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C47" s="2"/>
       <c r="M47" s="25"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
         <v>124</v>
       </c>
@@ -6568,7 +6574,7 @@
       </c>
       <c r="M48" s="25"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C49" s="27">
         <f t="shared" ref="C49:C56" si="3">B12</f>
         <v>43143</v>
@@ -6587,7 +6593,7 @@
       </c>
       <c r="M49" s="25"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C50" s="27">
         <f t="shared" si="3"/>
         <v>43150</v>
@@ -6606,7 +6612,7 @@
       </c>
       <c r="M50" s="25"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C51" s="27">
         <f t="shared" si="3"/>
         <v>43164</v>
@@ -6625,7 +6631,7 @@
       </c>
       <c r="M51" s="26"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C52" s="27">
         <f t="shared" si="3"/>
         <v>43185</v>
@@ -6646,7 +6652,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C53" s="27">
         <f t="shared" si="3"/>
         <v>43199</v>
@@ -6665,7 +6671,7 @@
       </c>
       <c r="M53" s="25"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C54" s="27">
         <f t="shared" si="3"/>
         <v>43206</v>
@@ -6684,7 +6690,7 @@
       </c>
       <c r="M54" s="25"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C55" s="27">
         <f t="shared" si="3"/>
         <v>43213</v>
@@ -6703,7 +6709,7 @@
       </c>
       <c r="M55" s="25"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C56" s="27">
         <f t="shared" si="3"/>
         <v>43220</v>
@@ -6722,7 +6728,7 @@
       </c>
       <c r="M56" s="25"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B57" s="7" t="s">
         <v>125</v>
       </c>
@@ -6744,7 +6750,7 @@
       </c>
       <c r="M57" s="26"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C58" s="4">
         <f t="shared" ref="C58:C65" si="7">C12</f>
         <v>43143</v>
@@ -6765,7 +6771,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C59" s="4">
         <f t="shared" si="7"/>
         <v>43150</v>
@@ -6784,7 +6790,7 @@
       </c>
       <c r="M59" s="25"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C60" s="4">
         <f t="shared" si="7"/>
         <v>43171</v>
@@ -6803,7 +6809,7 @@
       </c>
       <c r="M60" s="25"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C61" s="4">
         <f t="shared" si="7"/>
         <v>43192</v>
@@ -6822,7 +6828,7 @@
       </c>
       <c r="M61" s="25"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C62" s="4">
         <f t="shared" si="7"/>
         <v>43199</v>
@@ -6841,7 +6847,7 @@
       </c>
       <c r="M62" s="25"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C63" s="4">
         <f t="shared" si="7"/>
         <v>43206</v>
@@ -6860,7 +6866,7 @@
       </c>
       <c r="M63" s="25"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C64" s="4">
         <f t="shared" si="7"/>
         <v>43213</v>
@@ -6879,7 +6885,7 @@
       </c>
       <c r="M64" s="26"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="4">
         <f t="shared" si="7"/>
         <v>43220</v>
@@ -6900,7 +6906,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B66" s="7" t="s">
         <v>126</v>
       </c>
@@ -6922,7 +6928,7 @@
       </c>
       <c r="M66" s="25"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="4">
         <f t="shared" ref="C67:C74" si="11">D12</f>
         <v>43143</v>
@@ -6941,7 +6947,7 @@
       </c>
       <c r="M67" s="25"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="4">
         <f t="shared" si="11"/>
         <v>43157</v>
@@ -6960,7 +6966,7 @@
       </c>
       <c r="M68" s="25"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="4">
         <f t="shared" si="11"/>
         <v>43171</v>
@@ -6979,7 +6985,7 @@
       </c>
       <c r="M69" s="25"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="4">
         <f t="shared" si="11"/>
         <v>43185</v>
@@ -6998,7 +7004,7 @@
       </c>
       <c r="M70" s="26"/>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="4">
         <f t="shared" si="11"/>
         <v>43199</v>
@@ -7019,7 +7025,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="4">
         <f t="shared" si="11"/>
         <v>43213</v>
@@ -7038,7 +7044,7 @@
       </c>
       <c r="M72" s="25"/>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="4">
         <f t="shared" si="11"/>
         <v>43220</v>
@@ -7057,7 +7063,7 @@
       </c>
       <c r="M73" s="25"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="4">
         <f t="shared" si="11"/>
         <v>43223</v>
@@ -7076,7 +7082,7 @@
       </c>
       <c r="M74" s="25"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B75" s="7" t="s">
         <v>127</v>
       </c>
@@ -7098,7 +7104,7 @@
       </c>
       <c r="M75" s="25"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="4">
         <f t="shared" ref="C76:C82" si="15">E12</f>
         <v>43143</v>
@@ -7117,7 +7123,7 @@
       </c>
       <c r="M76" s="26"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="4">
         <f t="shared" si="15"/>
         <v>43150</v>
@@ -7138,7 +7144,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C78" s="4">
         <f t="shared" si="15"/>
         <v>43157</v>
@@ -7157,7 +7163,7 @@
       </c>
       <c r="M78" s="25"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C79" s="4">
         <f t="shared" si="15"/>
         <v>43171</v>
@@ -7168,15 +7174,15 @@
       </c>
       <c r="E79">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F79" s="7">
         <f t="shared" si="18"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M79" s="25"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="4">
         <f t="shared" si="15"/>
         <v>43185</v>
@@ -7195,7 +7201,7 @@
       </c>
       <c r="M80" s="25"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C81" s="4">
         <f t="shared" si="15"/>
         <v>43199</v>
@@ -7214,7 +7220,7 @@
       </c>
       <c r="M81" s="25"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C82" s="4">
         <f t="shared" si="15"/>
         <v>43213</v>
@@ -7233,7 +7239,7 @@
       </c>
       <c r="M82" s="25"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B83" s="7" t="s">
         <v>128</v>
       </c>
@@ -7255,7 +7261,7 @@
       </c>
       <c r="M83" s="25"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C84" s="4">
         <f t="shared" ref="C84:C90" si="19">F12</f>
         <v>43143</v>
@@ -7274,7 +7280,7 @@
       </c>
       <c r="M84" s="26"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C85" s="4">
         <f t="shared" si="19"/>
         <v>43150</v>
@@ -7292,7 +7298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C86" s="4">
         <f t="shared" si="19"/>
         <v>43157</v>
@@ -7310,7 +7316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C87" s="4">
         <f t="shared" si="19"/>
         <v>43164</v>
@@ -7321,14 +7327,14 @@
       </c>
       <c r="E87">
         <f t="shared" si="21"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F87" s="7">
         <f t="shared" si="22"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C88" s="4">
         <f t="shared" si="19"/>
         <v>43192</v>
@@ -7346,7 +7352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C89" s="4">
         <f t="shared" si="19"/>
         <v>43199</v>
@@ -7364,7 +7370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C90" s="4">
         <f t="shared" si="19"/>
         <v>43213</v>
@@ -7382,7 +7388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B91" s="7" t="s">
         <v>129</v>
       </c>
@@ -7403,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C92" s="4">
         <f t="shared" ref="C92:C98" si="23">G12</f>
         <v>43143</v>
@@ -7421,7 +7427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C93" s="4">
         <f t="shared" si="23"/>
         <v>43150</v>
@@ -7439,7 +7445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C94" s="4">
         <f t="shared" si="23"/>
         <v>43164</v>
@@ -7457,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C95" s="4">
         <f t="shared" si="23"/>
         <v>43178</v>
@@ -7475,7 +7481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C96" s="4">
         <f t="shared" si="23"/>
         <v>43192</v>
@@ -7493,7 +7499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C97" s="4">
         <f t="shared" si="23"/>
         <v>43206</v>
@@ -7511,7 +7517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C98" s="4">
         <f t="shared" si="23"/>
         <v>43220</v>
@@ -7529,7 +7535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B99" s="7" t="s">
         <v>130</v>
       </c>
@@ -7550,7 +7556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C100" s="4">
         <f t="shared" ref="C100:C106" si="27">H12</f>
         <v>43143</v>
@@ -7568,7 +7574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C101" s="4">
         <f t="shared" si="27"/>
         <v>43157</v>
@@ -7586,7 +7592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C102" s="4">
         <f t="shared" si="27"/>
         <v>43164</v>
@@ -7604,7 +7610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C103" s="4">
         <f t="shared" si="27"/>
         <v>43178</v>
@@ -7622,7 +7628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C104" s="4">
         <f t="shared" si="27"/>
         <v>43192</v>
@@ -7640,7 +7646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C105" s="4">
         <f t="shared" si="27"/>
         <v>43206</v>
@@ -7658,7 +7664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C106" s="4">
         <f t="shared" si="27"/>
         <v>43213</v>
@@ -7676,7 +7682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B107" s="7" t="s">
         <v>131</v>
       </c>
@@ -7697,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C108" s="4">
         <f t="shared" ref="C108:C114" si="31">I12</f>
         <v>43143</v>
@@ -7715,7 +7721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C109" s="4">
         <f t="shared" si="31"/>
         <v>43150</v>
@@ -7733,7 +7739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C110" s="4">
         <f t="shared" si="31"/>
         <v>43164</v>
@@ -7751,7 +7757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C111" s="4">
         <f t="shared" si="31"/>
         <v>43178</v>
@@ -7769,7 +7775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C112" s="4">
         <f t="shared" si="31"/>
         <v>43185</v>
@@ -7787,7 +7793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C113" s="4">
         <f t="shared" si="31"/>
         <v>43192</v>
@@ -7805,7 +7811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C114" s="4">
         <f t="shared" si="31"/>
         <v>43206</v>
@@ -7823,7 +7829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B115" s="7" t="s">
         <v>132</v>
       </c>
@@ -7844,7 +7850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C116" s="4">
         <f t="shared" ref="C116:C123" si="35">J12</f>
         <v>43143</v>
@@ -7862,7 +7868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C117" s="4">
         <f t="shared" si="35"/>
         <v>43150</v>
@@ -7880,7 +7886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C118" s="4">
         <f t="shared" si="35"/>
         <v>43171</v>
@@ -7898,7 +7904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C119" s="4">
         <f t="shared" si="35"/>
         <v>43185</v>
@@ -7916,7 +7922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C120" s="4">
         <f t="shared" si="35"/>
         <v>43192</v>
@@ -7934,7 +7940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C121" s="4">
         <f t="shared" si="35"/>
         <v>43206</v>
@@ -7952,7 +7958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C122" s="4">
         <f t="shared" si="35"/>
         <v>43220</v>
@@ -7970,7 +7976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C123" s="4">
         <f t="shared" si="35"/>
         <v>43223</v>
@@ -7990,7 +7996,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1">
       <formula1>personList</formula1>
     </dataValidation>
   </dataValidations>
@@ -8002,23 +8008,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="62.5" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -8029,7 +8035,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>72</v>
       </c>
@@ -8037,7 +8043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>56</v>
       </c>
@@ -8045,7 +8051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>57</v>
       </c>
@@ -8053,7 +8059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>58</v>
       </c>
@@ -8061,7 +8067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>59</v>
       </c>
@@ -8069,7 +8075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>60</v>
       </c>
@@ -8077,7 +8083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>61</v>
       </c>
@@ -8085,7 +8091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>62</v>
       </c>
@@ -8093,7 +8099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>63</v>
       </c>
@@ -8101,14 +8107,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>72</v>
       </c>
@@ -8116,7 +8122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>64</v>
       </c>
@@ -8124,7 +8130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>65</v>
       </c>
@@ -8132,7 +8138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>66</v>
       </c>
@@ -8140,7 +8146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>67</v>
       </c>
@@ -8148,7 +8154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>68</v>
       </c>
@@ -8156,7 +8162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>69</v>
       </c>
@@ -8164,7 +8170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>70</v>
       </c>
@@ -8172,7 +8178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>71</v>
       </c>
@@ -8180,14 +8186,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>72</v>
       </c>
@@ -8195,7 +8201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>105</v>
       </c>
@@ -8203,7 +8209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>106</v>
       </c>
@@ -8211,7 +8217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>107</v>
       </c>
@@ -8219,7 +8225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>108</v>
       </c>
@@ -8227,7 +8233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>109</v>
       </c>
@@ -8235,7 +8241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>110</v>
       </c>
@@ -8243,7 +8249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>70</v>
       </c>
@@ -8251,7 +8257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>79</v>
       </c>
@@ -8259,14 +8265,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>72</v>
       </c>
@@ -8274,7 +8280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>98</v>
       </c>
@@ -8282,7 +8288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>99</v>
       </c>
@@ -8290,7 +8296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>100</v>
       </c>
@@ -8298,7 +8304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>101</v>
       </c>
@@ -8306,7 +8312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>102</v>
       </c>
@@ -8314,7 +8320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>103</v>
       </c>
@@ -8322,7 +8328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>70</v>
       </c>
@@ -8330,7 +8336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>104</v>
       </c>
@@ -8338,14 +8344,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>72</v>
       </c>
@@ -8356,7 +8362,7 @@
         <v>16.25</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>111</v>
       </c>
@@ -8367,7 +8373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>112</v>
       </c>
@@ -8378,7 +8384,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>113</v>
       </c>
@@ -8389,7 +8395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>114</v>
       </c>
@@ -8400,7 +8406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>115</v>
       </c>
@@ -8408,7 +8414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>116</v>
       </c>
@@ -8416,7 +8422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>117</v>
       </c>
@@ -8424,7 +8430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>79</v>
       </c>
@@ -8432,14 +8438,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B51" s="18"/>
       <c r="C51" s="19"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
         <v>72</v>
       </c>
@@ -8447,7 +8453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
         <v>91</v>
       </c>
@@ -8455,7 +8461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>92</v>
       </c>
@@ -8463,7 +8469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
         <v>93</v>
       </c>
@@ -8471,7 +8477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
         <v>94</v>
       </c>
@@ -8479,7 +8485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
         <v>95</v>
       </c>
@@ -8487,7 +8493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
         <v>96</v>
       </c>
@@ -8495,7 +8501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
         <v>97</v>
       </c>
@@ -8503,7 +8509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="17" t="s">
         <v>79</v>
       </c>
@@ -8511,14 +8517,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B61" s="18"/>
       <c r="C61" s="19"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>72</v>
       </c>
@@ -8529,7 +8535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
         <v>87</v>
       </c>
@@ -8540,7 +8546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
         <v>88</v>
       </c>
@@ -8551,7 +8557,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
         <v>133</v>
       </c>
@@ -8562,7 +8568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
         <v>136</v>
       </c>
@@ -8573,7 +8579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
         <v>135</v>
       </c>
@@ -8584,7 +8590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
         <v>70</v>
       </c>
@@ -8595,7 +8601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
         <v>89</v>
       </c>
@@ -8606,7 +8612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>90</v>
       </c>
@@ -8617,14 +8623,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B71" s="18"/>
       <c r="C71" s="19"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
         <v>72</v>
       </c>
@@ -8632,7 +8638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
         <v>80</v>
       </c>
@@ -8640,7 +8646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
         <v>81</v>
       </c>
@@ -8648,7 +8654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
         <v>82</v>
       </c>
@@ -8656,7 +8662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
         <v>83</v>
       </c>
@@ -8664,7 +8670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
         <v>84</v>
       </c>
@@ -8672,7 +8678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
         <v>85</v>
       </c>
@@ -8680,7 +8686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="16" t="s">
         <v>70</v>
       </c>
@@ -8688,7 +8694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="17" t="s">
         <v>86</v>
       </c>
@@ -8696,14 +8702,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B81" s="18"/>
       <c r="C81" s="19"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
         <v>72</v>
       </c>
@@ -8711,7 +8717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
         <v>73</v>
       </c>
@@ -8719,7 +8725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
         <v>74</v>
       </c>
@@ -8727,7 +8733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
         <v>75</v>
       </c>
@@ -8735,7 +8741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="s">
         <v>76</v>
       </c>
@@ -8743,7 +8749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
         <v>77</v>
       </c>
@@ -8751,7 +8757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
         <v>78</v>
       </c>
@@ -8759,7 +8765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
         <v>76</v>
       </c>
@@ -8767,7 +8773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
         <v>79</v>
       </c>
@@ -8775,7 +8781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B91" s="20" t="s">
         <v>122</v>
       </c>
@@ -8789,7 +8795,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B92">
         <f>SUM(B2:B90)</f>
         <v>435.5</v>

--- a/doc/Master_Gantt.xlsx
+++ b/doc/Master_Gantt.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrettoetken/Documents/GitHub/Team-Faucet/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Metagross\Documents\GitHub\Team-Faucet\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18420" yWindow="6500" windowWidth="27120" windowHeight="18620"/>
+    <workbookView xWindow="18420" yWindow="6495" windowWidth="27120" windowHeight="18615"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,16 @@
   <definedNames>
     <definedName name="personList">Gantt!$B$1:$J$1</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -39,7 +39,7 @@
     <author>Travis Rousey</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="144">
   <si>
     <t>Persons</t>
   </si>
@@ -479,12 +479,33 @@
   </si>
   <si>
     <t>Integrate Inventory into the main game (4/12/2018)</t>
+  </si>
+  <si>
+    <t>Make inert obstacles</t>
+  </si>
+  <si>
+    <t>Make Simple Interactables</t>
+  </si>
+  <si>
+    <t>Make Level Exit/Dodo Egg</t>
+  </si>
+  <si>
+    <t>Make Optional Obstacles</t>
+  </si>
+  <si>
+    <t>Integrate other's parts that were not previously working</t>
+  </si>
+  <si>
+    <t>Github setup, Etc.</t>
+  </si>
+  <si>
+    <t>Final testing and build</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -930,7 +951,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1060,36 +1081,36 @@
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>43115.0</c:v>
+                  <c:v>43115</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43143.0</c:v>
+                  <c:v>43143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43157.0</c:v>
+                  <c:v>43157</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43164.0</c:v>
+                  <c:v>43164</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43178.0</c:v>
+                  <c:v>43178</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43220.0</c:v>
+                  <c:v>43220</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AC47-4BDA-A3B4-88EDFA6D349E}"/>
             </c:ext>
@@ -1161,36 +1182,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-AC47-4BDA-A3B4-88EDFA6D349E}"/>
             </c:ext>
@@ -1262,36 +1283,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-AC47-4BDA-A3B4-88EDFA6D349E}"/>
             </c:ext>
@@ -1365,8 +1386,8 @@
         <c:axId val="-2082871712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43227.0"/>
-          <c:min val="43115.0"/>
+          <c:max val="43227"/>
+          <c:min val="43115"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -1418,7 +1439,7 @@
         <c:crossAx val="-2080608688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="7.0"/>
+        <c:majorUnit val="7"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1431,7 +1452,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -1473,7 +1494,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1547,55 +1568,55 @@
                   <c:v>Documentation/SA demo</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Github setup, Etc.</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Write Public functions, basic structure</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>Program core features</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>Program optional features</c:v>
+                  <c:v>Make inert obstacles</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Debug main features</c:v>
+                  <c:v>Make Simple Interactables</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Debug optional features</c:v>
+                  <c:v>Make Level Exit/Dodo Egg</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Documentation</c:v>
+                  <c:v>Make Optional Obstacles</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Testing</c:v>
+                  <c:v>Integrate other's parts that were not previously working</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Release Build</c:v>
+                  <c:v>Final testing and build</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Documentation/SA demo</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>Github setup, Etc.</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>Write Public functions, basic structure</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>Program core features</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>Program optional features</c:v>
+                  <c:v>Make inert obstacles</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Debug main features</c:v>
+                  <c:v>Make Simple Interactables</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Debug optional features</c:v>
+                  <c:v>Make Level Exit/Dodo Egg</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Documentation</c:v>
+                  <c:v>Make Optional Obstacles</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Testing</c:v>
+                  <c:v>Integrate other's parts that were not previously working</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Release Build</c:v>
+                  <c:v>Final testing and build</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>Documentation/SA demo</c:v>
@@ -1754,237 +1775,237 @@
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="76"/>
                 <c:pt idx="0">
-                  <c:v>43115.0</c:v>
+                  <c:v>43115</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43143.0</c:v>
+                  <c:v>43143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43150.0</c:v>
+                  <c:v>43150</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43164.0</c:v>
+                  <c:v>43164</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43185.0</c:v>
+                  <c:v>43185</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43220.0</c:v>
+                  <c:v>43220</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43115.0</c:v>
+                  <c:v>43115</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43143.0</c:v>
+                  <c:v>43143</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43150.0</c:v>
+                  <c:v>43150</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43171.0</c:v>
+                  <c:v>43171</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43220.0</c:v>
+                  <c:v>43220</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43115.0</c:v>
+                  <c:v>43115</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43143.0</c:v>
+                  <c:v>43143</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43157.0</c:v>
+                  <c:v>43157</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43171.0</c:v>
+                  <c:v>43171</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43185.0</c:v>
+                  <c:v>43185</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43220.0</c:v>
+                  <c:v>43220</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43223.0</c:v>
+                  <c:v>43223</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43115.0</c:v>
+                  <c:v>43115</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43143.0</c:v>
+                  <c:v>43143</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43150.0</c:v>
+                  <c:v>43150</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43157.0</c:v>
+                  <c:v>43157</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43171.0</c:v>
+                  <c:v>43171</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43185.0</c:v>
+                  <c:v>43185</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43115.0</c:v>
+                  <c:v>43115</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43143.0</c:v>
+                  <c:v>43143</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43150.0</c:v>
+                  <c:v>43150</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43157.0</c:v>
+                  <c:v>43157</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43164.0</c:v>
+                  <c:v>43164</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43115.0</c:v>
+                  <c:v>43115</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43143.0</c:v>
+                  <c:v>43143</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43150.0</c:v>
+                  <c:v>43150</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43164.0</c:v>
+                  <c:v>43164</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43178.0</c:v>
+                  <c:v>43178</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43220.0</c:v>
+                  <c:v>43220</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43115.0</c:v>
+                  <c:v>43115</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>43143.0</c:v>
+                  <c:v>43143</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>43157.0</c:v>
+                  <c:v>43157</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>43164.0</c:v>
+                  <c:v>43164</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>43178.0</c:v>
+                  <c:v>43178</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>43115.0</c:v>
+                  <c:v>43115</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>43143.0</c:v>
+                  <c:v>43143</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>43150.0</c:v>
+                  <c:v>43150</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>43164.0</c:v>
+                  <c:v>43164</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>43178.0</c:v>
+                  <c:v>43178</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>43185.0</c:v>
+                  <c:v>43185</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>43115.0</c:v>
+                  <c:v>43115</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>43143.0</c:v>
+                  <c:v>43143</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>43150.0</c:v>
+                  <c:v>43150</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>43171.0</c:v>
+                  <c:v>43171</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>43185.0</c:v>
+                  <c:v>43185</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>43220.0</c:v>
+                  <c:v>43220</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>43223.0</c:v>
+                  <c:v>43223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-B8AA-4D28-B8D6-EF0880E70ADF}"/>
             </c:ext>
@@ -2042,55 +2063,55 @@
                   <c:v>Documentation/SA demo</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Github setup, Etc.</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Write Public functions, basic structure</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>Program core features</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>Program optional features</c:v>
+                  <c:v>Make inert obstacles</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Debug main features</c:v>
+                  <c:v>Make Simple Interactables</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Debug optional features</c:v>
+                  <c:v>Make Level Exit/Dodo Egg</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Documentation</c:v>
+                  <c:v>Make Optional Obstacles</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Testing</c:v>
+                  <c:v>Integrate other's parts that were not previously working</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Release Build</c:v>
+                  <c:v>Final testing and build</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Documentation/SA demo</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>Github setup, Etc.</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>Write Public functions, basic structure</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>Program core features</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>Program optional features</c:v>
+                  <c:v>Make inert obstacles</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Debug main features</c:v>
+                  <c:v>Make Simple Interactables</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Debug optional features</c:v>
+                  <c:v>Make Level Exit/Dodo Egg</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Documentation</c:v>
+                  <c:v>Make Optional Obstacles</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Testing</c:v>
+                  <c:v>Integrate other's parts that were not previously working</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Release Build</c:v>
+                  <c:v>Final testing and build</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>Documentation/SA demo</c:v>
@@ -2249,237 +2270,237 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="76"/>
                 <c:pt idx="0">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-B8AA-4D28-B8D6-EF0880E70ADF}"/>
             </c:ext>
@@ -2537,55 +2558,55 @@
                   <c:v>Documentation/SA demo</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Github setup, Etc.</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Write Public functions, basic structure</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>Program core features</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>Program optional features</c:v>
+                  <c:v>Make inert obstacles</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Debug main features</c:v>
+                  <c:v>Make Simple Interactables</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Debug optional features</c:v>
+                  <c:v>Make Level Exit/Dodo Egg</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Documentation</c:v>
+                  <c:v>Make Optional Obstacles</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Testing</c:v>
+                  <c:v>Integrate other's parts that were not previously working</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Release Build</c:v>
+                  <c:v>Final testing and build</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Documentation/SA demo</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>Github setup, Etc.</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>Write Public functions, basic structure</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>Program core features</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>Program optional features</c:v>
+                  <c:v>Make inert obstacles</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Debug main features</c:v>
+                  <c:v>Make Simple Interactables</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Debug optional features</c:v>
+                  <c:v>Make Level Exit/Dodo Egg</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Documentation</c:v>
+                  <c:v>Make Optional Obstacles</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Testing</c:v>
+                  <c:v>Integrate other's parts that were not previously working</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Release Build</c:v>
+                  <c:v>Final testing and build</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>Documentation/SA demo</c:v>
@@ -2744,237 +2765,237 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="76"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.0</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.0</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-B8AA-4D28-B8D6-EF0880E70ADF}"/>
             </c:ext>
@@ -3048,8 +3069,8 @@
         <c:axId val="-2082833936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43227.0"/>
-          <c:min val="43115.0"/>
+          <c:max val="43227"/>
+          <c:min val="43115"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -3101,8 +3122,8 @@
         <c:crossAx val="-2082836992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="7.0"/>
-        <c:minorUnit val="4.0"/>
+        <c:majorUnit val="7"/>
+        <c:minorUnit val="4"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3115,7 +3136,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -4266,7 +4287,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1BF7332F-D308-4084-AEA4-FC56753264FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF7332F-D308-4084-AEA4-FC56753264FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4302,7 +4323,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB6E55A4-AD91-4226-BDEC-C7E2EC15826A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB6E55A4-AD91-4226-BDEC-C7E2EC15826A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4622,27 +4643,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4680,7 +4701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4719,7 +4740,7 @@
         <v>Documentation/SA demo</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -4727,7 +4748,7 @@
         <v>56</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>105</v>
@@ -4758,7 +4779,7 @@
         <v>Create Inventory</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -4766,7 +4787,7 @@
         <v>57</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>106</v>
@@ -4797,7 +4818,7 @@
         <v>Create test Items</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -4805,7 +4826,7 @@
         <v>58</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>107</v>
@@ -4836,7 +4857,7 @@
         <v>Make items stack/swap</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -4844,7 +4865,7 @@
         <v>59</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>108</v>
@@ -4875,7 +4896,7 @@
         <v>Integrate Inventory into the main game</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -4883,7 +4904,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>109</v>
@@ -4914,7 +4935,7 @@
         <v>Make item objects in game move to inventory</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -4922,7 +4943,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>110</v>
@@ -4953,7 +4974,7 @@
         <v>Testing</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -4961,7 +4982,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>70</v>
@@ -4992,7 +5013,7 @@
         <v>Create all necessary items</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -5000,7 +5021,7 @@
         <v>63</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="D10" s="37" t="s">
         <v>79</v>
@@ -5031,7 +5052,7 @@
         <v>Final Testing</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -5070,7 +5091,7 @@
         <v>43115</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -5109,7 +5130,7 @@
         <v>43143</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -5148,7 +5169,7 @@
         <v>43157</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -5187,7 +5208,7 @@
         <v>43164</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -5226,7 +5247,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -5265,7 +5286,7 @@
         <v>43192</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -5304,7 +5325,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -5343,7 +5364,7 @@
         <v>43213</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -5382,7 +5403,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -5390,7 +5411,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="48">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D20" s="48">
         <v>28</v>
@@ -5421,7 +5442,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -5429,7 +5450,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="30">
         <v>14</v>
@@ -5460,7 +5481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -5468,7 +5489,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="30">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D22" s="30">
         <v>14</v>
@@ -5499,7 +5520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -5507,7 +5528,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="30">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D23" s="30">
         <v>14</v>
@@ -5541,7 +5562,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -5549,7 +5570,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D24" s="30">
         <v>14</v>
@@ -5581,7 +5602,7 @@
       </c>
       <c r="M24" s="24"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -5589,7 +5610,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D25" s="30">
         <v>14</v>
@@ -5621,7 +5642,7 @@
       </c>
       <c r="M25" s="25"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -5629,7 +5650,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="30">
         <v>7</v>
@@ -5661,7 +5682,7 @@
       </c>
       <c r="M26" s="25"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -5669,7 +5690,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D27" s="30">
         <v>3</v>
@@ -5701,7 +5722,7 @@
       </c>
       <c r="M27" s="25"/>
     </row>
-    <row r="28" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -5741,7 +5762,7 @@
       </c>
       <c r="M28" s="25"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -5749,7 +5770,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="48">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D29" s="48">
         <v>28</v>
@@ -5781,7 +5802,7 @@
       </c>
       <c r="M29" s="25"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -5789,7 +5810,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="30">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D30" s="30">
         <v>14</v>
@@ -5821,7 +5842,7 @@
       </c>
       <c r="M30" s="25"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -5829,7 +5850,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="30">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D31" s="30">
         <v>14</v>
@@ -5863,7 +5884,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -5871,7 +5892,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="30">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D32" s="30">
         <v>7</v>
@@ -5903,7 +5924,7 @@
       </c>
       <c r="M32" s="25"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -5911,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D33" s="30">
         <v>0</v>
@@ -5943,7 +5964,7 @@
       </c>
       <c r="M33" s="25"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -5951,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D34" s="30">
         <v>0</v>
@@ -5983,7 +6004,7 @@
       </c>
       <c r="M34" s="25"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -5991,7 +6012,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D35" s="30">
         <v>0</v>
@@ -6023,7 +6044,7 @@
       </c>
       <c r="M35" s="25"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -6031,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="30">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D36" s="30">
         <v>0</v>
@@ -6063,7 +6084,7 @@
       </c>
       <c r="M36" s="25"/>
     </row>
-    <row r="37" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -6071,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D37" s="53">
         <v>0</v>
@@ -6103,7 +6124,7 @@
       </c>
       <c r="M37" s="25"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -6154,7 +6175,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -6164,7 +6185,7 @@
       </c>
       <c r="C39" s="28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="D39" s="28">
         <f t="shared" si="2"/>
@@ -6203,7 +6224,7 @@
       </c>
       <c r="M39" s="25"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -6213,7 +6234,7 @@
       </c>
       <c r="C40" s="28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D40" s="28">
         <f t="shared" si="2"/>
@@ -6252,7 +6273,7 @@
       </c>
       <c r="M40" s="25"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -6262,7 +6283,7 @@
       </c>
       <c r="C41" s="28">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D41" s="28">
         <f t="shared" si="2"/>
@@ -6301,7 +6322,7 @@
       </c>
       <c r="M41" s="25"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -6311,7 +6332,7 @@
       </c>
       <c r="C42" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="D42" s="28">
         <f t="shared" si="2"/>
@@ -6350,7 +6371,7 @@
       </c>
       <c r="M42" s="25"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -6360,7 +6381,7 @@
       </c>
       <c r="C43" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="D43" s="28">
         <f t="shared" si="2"/>
@@ -6399,7 +6420,7 @@
       </c>
       <c r="M43" s="25"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -6409,7 +6430,7 @@
       </c>
       <c r="C44" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D44" s="28">
         <f t="shared" si="2"/>
@@ -6448,7 +6469,7 @@
       </c>
       <c r="M44" s="25"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -6458,7 +6479,7 @@
       </c>
       <c r="C45" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>-4</v>
       </c>
       <c r="D45" s="28">
         <f t="shared" si="2"/>
@@ -6497,7 +6518,7 @@
       </c>
       <c r="M45" s="26"/>
     </row>
-    <row r="46" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -6507,7 +6528,7 @@
       </c>
       <c r="C46" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D46" s="37">
         <f t="shared" si="2"/>
@@ -6548,11 +6569,11 @@
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
       <c r="M47" s="25"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
         <v>124</v>
       </c>
@@ -6574,7 +6595,7 @@
       </c>
       <c r="M48" s="25"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C49" s="27">
         <f t="shared" ref="C49:C56" si="3">B12</f>
         <v>43143</v>
@@ -6593,7 +6614,7 @@
       </c>
       <c r="M49" s="25"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C50" s="27">
         <f t="shared" si="3"/>
         <v>43150</v>
@@ -6612,7 +6633,7 @@
       </c>
       <c r="M50" s="25"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C51" s="27">
         <f t="shared" si="3"/>
         <v>43164</v>
@@ -6631,7 +6652,7 @@
       </c>
       <c r="M51" s="26"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C52" s="27">
         <f t="shared" si="3"/>
         <v>43185</v>
@@ -6652,7 +6673,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C53" s="27">
         <f t="shared" si="3"/>
         <v>43199</v>
@@ -6671,7 +6692,7 @@
       </c>
       <c r="M53" s="25"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C54" s="27">
         <f t="shared" si="3"/>
         <v>43206</v>
@@ -6690,7 +6711,7 @@
       </c>
       <c r="M54" s="25"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C55" s="27">
         <f t="shared" si="3"/>
         <v>43213</v>
@@ -6709,7 +6730,7 @@
       </c>
       <c r="M55" s="25"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C56" s="27">
         <f t="shared" si="3"/>
         <v>43220</v>
@@ -6728,7 +6749,7 @@
       </c>
       <c r="M56" s="25"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
         <v>125</v>
       </c>
@@ -6742,7 +6763,7 @@
       </c>
       <c r="E57">
         <f>C29</f>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F57" s="7">
         <f>C38</f>
@@ -6750,163 +6771,163 @@
       </c>
       <c r="M57" s="26"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C58" s="4">
         <f t="shared" ref="C58:C65" si="7">C12</f>
         <v>43143</v>
       </c>
       <c r="D58" s="7" t="str">
         <f t="shared" ref="D58:D65" si="8">C3</f>
-        <v>Write Public functions, basic structure</v>
+        <v>Github setup, Etc.</v>
       </c>
       <c r="E58">
         <f t="shared" ref="E58:E65" si="9">C30</f>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F58" s="7">
         <f t="shared" ref="F58:F65" si="10">C39</f>
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="M58" s="25" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C59" s="4">
         <f t="shared" si="7"/>
         <v>43150</v>
       </c>
       <c r="D59" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>Program core features</v>
+        <v>Write Public functions, basic structure</v>
       </c>
       <c r="E59">
         <f t="shared" si="9"/>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F59" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M59" s="25"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C60" s="4">
         <f t="shared" si="7"/>
         <v>43171</v>
       </c>
       <c r="D60" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>Program optional features</v>
+        <v>Make inert obstacles</v>
       </c>
       <c r="E60">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F60" s="7">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M60" s="25"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C61" s="4">
         <f t="shared" si="7"/>
         <v>43192</v>
       </c>
       <c r="D61" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>Debug main features</v>
+        <v>Make Simple Interactables</v>
       </c>
       <c r="E61">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F61" s="7">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="M61" s="25"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C62" s="4">
         <f t="shared" si="7"/>
         <v>43199</v>
       </c>
       <c r="D62" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>Debug optional features</v>
+        <v>Make Level Exit/Dodo Egg</v>
       </c>
       <c r="E62">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F62" s="7">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="M62" s="25"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C63" s="4">
         <f t="shared" si="7"/>
         <v>43206</v>
       </c>
       <c r="D63" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>Documentation</v>
+        <v>Make Optional Obstacles</v>
       </c>
       <c r="E63">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F63" s="7">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M63" s="25"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C64" s="4">
         <f t="shared" si="7"/>
         <v>43213</v>
       </c>
       <c r="D64" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>Testing</v>
+        <v>Integrate other's parts that were not previously working</v>
       </c>
       <c r="E64">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F64" s="7">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>-4</v>
       </c>
       <c r="M64" s="26"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C65" s="4">
         <f t="shared" si="7"/>
         <v>43220</v>
       </c>
       <c r="D65" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>Release Build</v>
+        <v>Final testing and build</v>
       </c>
       <c r="E65">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F65" s="7">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M65" s="25" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
         <v>126</v>
       </c>
@@ -6928,14 +6949,14 @@
       </c>
       <c r="M66" s="25"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C67" s="4">
         <f t="shared" ref="C67:C74" si="11">D12</f>
         <v>43143</v>
       </c>
       <c r="D67" s="7" t="str">
         <f t="shared" ref="D67:D74" si="12">C3</f>
-        <v>Write Public functions, basic structure</v>
+        <v>Github setup, Etc.</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E74" si="13">D30</f>
@@ -6947,14 +6968,14 @@
       </c>
       <c r="M67" s="25"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C68" s="4">
         <f t="shared" si="11"/>
         <v>43157</v>
       </c>
       <c r="D68" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>Program core features</v>
+        <v>Write Public functions, basic structure</v>
       </c>
       <c r="E68">
         <f t="shared" si="13"/>
@@ -6966,14 +6987,14 @@
       </c>
       <c r="M68" s="25"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C69" s="4">
         <f t="shared" si="11"/>
         <v>43171</v>
       </c>
       <c r="D69" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>Program optional features</v>
+        <v>Make inert obstacles</v>
       </c>
       <c r="E69">
         <f t="shared" si="13"/>
@@ -6985,14 +7006,14 @@
       </c>
       <c r="M69" s="25"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C70" s="4">
         <f t="shared" si="11"/>
         <v>43185</v>
       </c>
       <c r="D70" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>Debug main features</v>
+        <v>Make Simple Interactables</v>
       </c>
       <c r="E70">
         <f t="shared" si="13"/>
@@ -7004,14 +7025,14 @@
       </c>
       <c r="M70" s="26"/>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C71" s="4">
         <f t="shared" si="11"/>
         <v>43199</v>
       </c>
       <c r="D71" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>Debug optional features</v>
+        <v>Make Level Exit/Dodo Egg</v>
       </c>
       <c r="E71">
         <f t="shared" si="13"/>
@@ -7025,14 +7046,14 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C72" s="4">
         <f t="shared" si="11"/>
         <v>43213</v>
       </c>
       <c r="D72" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>Documentation</v>
+        <v>Make Optional Obstacles</v>
       </c>
       <c r="E72">
         <f t="shared" si="13"/>
@@ -7044,14 +7065,14 @@
       </c>
       <c r="M72" s="25"/>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C73" s="4">
         <f t="shared" si="11"/>
         <v>43220</v>
       </c>
       <c r="D73" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>Testing</v>
+        <v>Integrate other's parts that were not previously working</v>
       </c>
       <c r="E73">
         <f t="shared" si="13"/>
@@ -7063,14 +7084,14 @@
       </c>
       <c r="M73" s="25"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C74" s="4">
         <f t="shared" si="11"/>
         <v>43223</v>
       </c>
       <c r="D74" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>Release Build</v>
+        <v>Final testing and build</v>
       </c>
       <c r="E74">
         <f t="shared" si="13"/>
@@ -7082,7 +7103,7 @@
       </c>
       <c r="M74" s="25"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
         <v>127</v>
       </c>
@@ -7104,7 +7125,7 @@
       </c>
       <c r="M75" s="25"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C76" s="4">
         <f t="shared" ref="C76:C82" si="15">E12</f>
         <v>43143</v>
@@ -7123,7 +7144,7 @@
       </c>
       <c r="M76" s="26"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C77" s="4">
         <f t="shared" si="15"/>
         <v>43150</v>
@@ -7144,7 +7165,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C78" s="4">
         <f t="shared" si="15"/>
         <v>43157</v>
@@ -7163,7 +7184,7 @@
       </c>
       <c r="M78" s="25"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C79" s="4">
         <f t="shared" si="15"/>
         <v>43171</v>
@@ -7182,7 +7203,7 @@
       </c>
       <c r="M79" s="25"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C80" s="4">
         <f t="shared" si="15"/>
         <v>43185</v>
@@ -7201,7 +7222,7 @@
       </c>
       <c r="M80" s="25"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C81" s="4">
         <f t="shared" si="15"/>
         <v>43199</v>
@@ -7220,7 +7241,7 @@
       </c>
       <c r="M81" s="25"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C82" s="4">
         <f t="shared" si="15"/>
         <v>43213</v>
@@ -7239,7 +7260,7 @@
       </c>
       <c r="M82" s="25"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
         <v>128</v>
       </c>
@@ -7261,7 +7282,7 @@
       </c>
       <c r="M83" s="25"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C84" s="4">
         <f t="shared" ref="C84:C90" si="19">F12</f>
         <v>43143</v>
@@ -7280,7 +7301,7 @@
       </c>
       <c r="M84" s="26"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C85" s="4">
         <f t="shared" si="19"/>
         <v>43150</v>
@@ -7298,7 +7319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C86" s="4">
         <f t="shared" si="19"/>
         <v>43157</v>
@@ -7316,7 +7337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C87" s="4">
         <f t="shared" si="19"/>
         <v>43164</v>
@@ -7334,7 +7355,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C88" s="4">
         <f t="shared" si="19"/>
         <v>43192</v>
@@ -7352,7 +7373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C89" s="4">
         <f t="shared" si="19"/>
         <v>43199</v>
@@ -7370,7 +7391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C90" s="4">
         <f t="shared" si="19"/>
         <v>43213</v>
@@ -7388,7 +7409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
         <v>129</v>
       </c>
@@ -7409,7 +7430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C92" s="4">
         <f t="shared" ref="C92:C98" si="23">G12</f>
         <v>43143</v>
@@ -7427,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C93" s="4">
         <f t="shared" si="23"/>
         <v>43150</v>
@@ -7445,7 +7466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C94" s="4">
         <f t="shared" si="23"/>
         <v>43164</v>
@@ -7463,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C95" s="4">
         <f t="shared" si="23"/>
         <v>43178</v>
@@ -7481,7 +7502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C96" s="4">
         <f t="shared" si="23"/>
         <v>43192</v>
@@ -7499,7 +7520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C97" s="4">
         <f t="shared" si="23"/>
         <v>43206</v>
@@ -7517,7 +7538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C98" s="4">
         <f t="shared" si="23"/>
         <v>43220</v>
@@ -7535,7 +7556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
         <v>130</v>
       </c>
@@ -7556,7 +7577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C100" s="4">
         <f t="shared" ref="C100:C106" si="27">H12</f>
         <v>43143</v>
@@ -7574,7 +7595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C101" s="4">
         <f t="shared" si="27"/>
         <v>43157</v>
@@ -7592,7 +7613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C102" s="4">
         <f t="shared" si="27"/>
         <v>43164</v>
@@ -7610,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C103" s="4">
         <f t="shared" si="27"/>
         <v>43178</v>
@@ -7628,7 +7649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C104" s="4">
         <f t="shared" si="27"/>
         <v>43192</v>
@@ -7646,7 +7667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C105" s="4">
         <f t="shared" si="27"/>
         <v>43206</v>
@@ -7664,7 +7685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C106" s="4">
         <f t="shared" si="27"/>
         <v>43213</v>
@@ -7682,7 +7703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
         <v>131</v>
       </c>
@@ -7703,7 +7724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C108" s="4">
         <f t="shared" ref="C108:C114" si="31">I12</f>
         <v>43143</v>
@@ -7721,7 +7742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C109" s="4">
         <f t="shared" si="31"/>
         <v>43150</v>
@@ -7739,7 +7760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C110" s="4">
         <f t="shared" si="31"/>
         <v>43164</v>
@@ -7757,7 +7778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C111" s="4">
         <f t="shared" si="31"/>
         <v>43178</v>
@@ -7775,7 +7796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C112" s="4">
         <f t="shared" si="31"/>
         <v>43185</v>
@@ -7793,7 +7814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C113" s="4">
         <f t="shared" si="31"/>
         <v>43192</v>
@@ -7811,7 +7832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C114" s="4">
         <f t="shared" si="31"/>
         <v>43206</v>
@@ -7829,7 +7850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
         <v>132</v>
       </c>
@@ -7850,7 +7871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C116" s="4">
         <f t="shared" ref="C116:C123" si="35">J12</f>
         <v>43143</v>
@@ -7868,7 +7889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C117" s="4">
         <f t="shared" si="35"/>
         <v>43150</v>
@@ -7886,7 +7907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C118" s="4">
         <f t="shared" si="35"/>
         <v>43171</v>
@@ -7904,7 +7925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C119" s="4">
         <f t="shared" si="35"/>
         <v>43185</v>
@@ -7922,7 +7943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C120" s="4">
         <f t="shared" si="35"/>
         <v>43192</v>
@@ -7940,7 +7961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C121" s="4">
         <f t="shared" si="35"/>
         <v>43206</v>
@@ -7958,7 +7979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C122" s="4">
         <f t="shared" si="35"/>
         <v>43220</v>
@@ -7976,7 +7997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C123" s="4">
         <f t="shared" si="35"/>
         <v>43223</v>
@@ -8015,16 +8036,16 @@
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.5" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="62.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -8035,7 +8056,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>72</v>
       </c>
@@ -8043,7 +8064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>56</v>
       </c>
@@ -8051,7 +8072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>57</v>
       </c>
@@ -8059,7 +8080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>58</v>
       </c>
@@ -8067,7 +8088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>59</v>
       </c>
@@ -8075,7 +8096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>60</v>
       </c>
@@ -8083,7 +8104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>61</v>
       </c>
@@ -8091,7 +8112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>62</v>
       </c>
@@ -8099,7 +8120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>63</v>
       </c>
@@ -8107,14 +8128,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>72</v>
       </c>
@@ -8122,7 +8143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>64</v>
       </c>
@@ -8130,7 +8151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>65</v>
       </c>
@@ -8138,7 +8159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>66</v>
       </c>
@@ -8146,7 +8167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>67</v>
       </c>
@@ -8154,7 +8175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>68</v>
       </c>
@@ -8162,7 +8183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>69</v>
       </c>
@@ -8170,7 +8191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>70</v>
       </c>
@@ -8178,7 +8199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>71</v>
       </c>
@@ -8186,14 +8207,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>72</v>
       </c>
@@ -8201,7 +8222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>105</v>
       </c>
@@ -8209,7 +8230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>106</v>
       </c>
@@ -8217,7 +8238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>107</v>
       </c>
@@ -8225,7 +8246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>108</v>
       </c>
@@ -8233,7 +8254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>109</v>
       </c>
@@ -8241,7 +8262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>110</v>
       </c>
@@ -8249,7 +8270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>70</v>
       </c>
@@ -8257,7 +8278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>79</v>
       </c>
@@ -8265,14 +8286,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>72</v>
       </c>
@@ -8280,7 +8301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>98</v>
       </c>
@@ -8288,7 +8309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>99</v>
       </c>
@@ -8296,7 +8317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>100</v>
       </c>
@@ -8304,7 +8325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>101</v>
       </c>
@@ -8312,7 +8333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>102</v>
       </c>
@@ -8320,7 +8341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>103</v>
       </c>
@@ -8328,7 +8349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>70</v>
       </c>
@@ -8336,7 +8357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>104</v>
       </c>
@@ -8344,14 +8365,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>72</v>
       </c>
@@ -8362,7 +8383,7 @@
         <v>16.25</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>111</v>
       </c>
@@ -8373,7 +8394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>112</v>
       </c>
@@ -8384,7 +8405,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>113</v>
       </c>
@@ -8395,7 +8416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>114</v>
       </c>
@@ -8406,7 +8427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>115</v>
       </c>
@@ -8414,7 +8435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>116</v>
       </c>
@@ -8422,7 +8443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>117</v>
       </c>
@@ -8430,7 +8451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>79</v>
       </c>
@@ -8438,14 +8459,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B51" s="18"/>
       <c r="C51" s="19"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>72</v>
       </c>
@@ -8453,7 +8474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>91</v>
       </c>
@@ -8461,7 +8482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>92</v>
       </c>
@@ -8469,7 +8490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>93</v>
       </c>
@@ -8477,7 +8498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>94</v>
       </c>
@@ -8485,7 +8506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>95</v>
       </c>
@@ -8493,7 +8514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>96</v>
       </c>
@@ -8501,7 +8522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>97</v>
       </c>
@@ -8509,7 +8530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>79</v>
       </c>
@@ -8517,14 +8538,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B61" s="18"/>
       <c r="C61" s="19"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>72</v>
       </c>
@@ -8535,7 +8556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>87</v>
       </c>
@@ -8546,7 +8567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>88</v>
       </c>
@@ -8557,7 +8578,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>133</v>
       </c>
@@ -8568,7 +8589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>136</v>
       </c>
@@ -8579,7 +8600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>135</v>
       </c>
@@ -8590,7 +8611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>70</v>
       </c>
@@ -8601,7 +8622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>89</v>
       </c>
@@ -8612,7 +8633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>90</v>
       </c>
@@ -8623,14 +8644,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B71" s="18"/>
       <c r="C71" s="19"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>72</v>
       </c>
@@ -8638,7 +8659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>80</v>
       </c>
@@ -8646,7 +8667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>81</v>
       </c>
@@ -8654,7 +8675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>82</v>
       </c>
@@ -8662,7 +8683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>83</v>
       </c>
@@ -8670,7 +8691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>84</v>
       </c>
@@ -8678,7 +8699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>85</v>
       </c>
@@ -8686,7 +8707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>70</v>
       </c>
@@ -8694,7 +8715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
         <v>86</v>
       </c>
@@ -8702,14 +8723,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B81" s="18"/>
       <c r="C81" s="19"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>72</v>
       </c>
@@ -8717,7 +8738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>73</v>
       </c>
@@ -8725,7 +8746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>74</v>
       </c>
@@ -8733,7 +8754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>75</v>
       </c>
@@ -8741,7 +8762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>76</v>
       </c>
@@ -8749,7 +8770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>77</v>
       </c>
@@ -8757,7 +8778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>78</v>
       </c>
@@ -8765,7 +8786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>76</v>
       </c>
@@ -8773,7 +8794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>79</v>
       </c>
@@ -8781,7 +8802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B91" s="20" t="s">
         <v>122</v>
       </c>
@@ -8795,7 +8816,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92">
         <f>SUM(B2:B90)</f>
         <v>435.5</v>

--- a/doc/Master_Gantt.xlsx
+++ b/doc/Master_Gantt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Metagross\Documents\GitHub\Team-Faucet\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\travi\Desktop\Team-Faucet\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F23424-F6C1-477D-9FDF-ACA583D68C56}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18420" yWindow="6495" windowWidth="27120" windowHeight="18615"/>
+    <workbookView xWindow="18420" yWindow="6495" windowWidth="27120" windowHeight="18615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="personList">Gantt!$B$1:$J$1</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -34,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Travis Rousey</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -505,7 +506,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -976,7 +977,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1197,16 +1197,16 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,16 +1298,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1451,7 +1451,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1459,6 +1458,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2438,13 +2438,13 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>28</c:v>
@@ -2933,13 +2933,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>14</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>0</c:v>
@@ -3135,7 +3135,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3143,6 +3142,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4640,11 +4640,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5987,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="30">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I34" s="30">
         <v>0</v>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="L34" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M34" s="25"/>
     </row>
@@ -6027,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="30">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I35" s="30">
         <v>0</v>
@@ -6040,7 +6040,7 @@
       </c>
       <c r="L35" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M35" s="25"/>
     </row>
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="30">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I36" s="30">
         <v>0</v>
@@ -6080,7 +6080,7 @@
       </c>
       <c r="L36" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M36" s="25"/>
     </row>
@@ -6107,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37" s="53">
         <v>0</v>
@@ -6120,7 +6120,7 @@
       </c>
       <c r="L37" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M37" s="25"/>
     </row>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="H43" s="28">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I43" s="28">
         <f t="shared" si="2"/>
@@ -6416,7 +6416,7 @@
       </c>
       <c r="L43" s="22">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M43" s="25"/>
     </row>
@@ -6450,7 +6450,7 @@
       </c>
       <c r="H44" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I44" s="28">
         <f t="shared" si="2"/>
@@ -6465,7 +6465,7 @@
       </c>
       <c r="L44" s="22">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M44" s="25"/>
     </row>
@@ -6499,7 +6499,7 @@
       </c>
       <c r="H45" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I45" s="28">
         <f t="shared" si="2"/>
@@ -6514,7 +6514,7 @@
       </c>
       <c r="L45" s="22">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M45" s="26"/>
     </row>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="H46" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" s="37">
         <f t="shared" si="2"/>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="L46" s="22">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M46" s="25" t="s">
         <v>127</v>
@@ -7660,11 +7660,11 @@
       </c>
       <c r="E104">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F104" s="7">
         <f t="shared" si="30"/>
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
@@ -7678,11 +7678,11 @@
       </c>
       <c r="E105">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F105" s="7">
         <f t="shared" si="30"/>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
@@ -7696,11 +7696,11 @@
       </c>
       <c r="E106">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F106" s="7">
         <f t="shared" si="30"/>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
@@ -8017,7 +8017,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>personList</formula1>
     </dataValidation>
   </dataValidations>
@@ -8029,11 +8029,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8608,7 +8608,7 @@
         <v>5</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -8619,7 +8619,7 @@
         <v>5</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -8630,7 +8630,7 @@
         <v>5</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="C92">
         <f>SUM(C2:C90)</f>
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="D92" s="8">
         <f>B92*100</f>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="E92" s="8">
         <f>C92*100</f>
-        <v>8700</v>
+        <v>12400</v>
       </c>
     </row>
   </sheetData>
